--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186632.5434136629</v>
+        <v>184769.7431784073</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3104514.802848885</v>
+        <v>3104514.802848883</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>9.956053622142033</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1215,23 +1215,23 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13.47865120333094</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="U9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.0928186273023</v>
+        <v>15.37352110100015</v>
       </c>
       <c r="C11" t="n">
-        <v>116.5079145097043</v>
+        <v>342.6318687348294</v>
       </c>
       <c r="D11" t="n">
-        <v>332.0420185845047</v>
+        <v>332.0420185845048</v>
       </c>
       <c r="E11" t="n">
-        <v>359.2893470360835</v>
+        <v>359.2893470360836</v>
       </c>
       <c r="F11" t="n">
-        <v>384.2350227055332</v>
+        <v>384.2350227055333</v>
       </c>
       <c r="G11" t="n">
-        <v>390.0380203471443</v>
+        <v>390.0380203471444</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9638715521641</v>
+        <v>289.9638715521642</v>
       </c>
       <c r="I11" t="n">
-        <v>86.68489851752599</v>
+        <v>86.68489851752604</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>126.5916165213896</v>
+        <v>126.5916165213897</v>
       </c>
       <c r="T11" t="n">
         <v>188.9696054659439</v>
       </c>
       <c r="U11" t="n">
-        <v>228.4947343411133</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>305.1112354339567</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>347.0900776422909</v>
       </c>
       <c r="Y11" t="n">
-        <v>363.5969156198753</v>
+        <v>363.5969156198754</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.792939610391</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>144.1730574586458</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>129.1224486654906</v>
       </c>
       <c r="I13" t="n">
-        <v>97.41689333740958</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7347157997415</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.8654375318139</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>263.6138118368416</v>
+        <v>254.7582370857396</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>263.8819753004128</v>
       </c>
       <c r="X13" t="n">
-        <v>174.0030690621726</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.9436303159166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>360.0928186273023</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>342.6318687348293</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>332.0420185845047</v>
+        <v>332.0420185845048</v>
       </c>
       <c r="E14" t="n">
-        <v>359.2893470360835</v>
+        <v>359.2893470360836</v>
       </c>
       <c r="F14" t="n">
-        <v>195.1080384190485</v>
+        <v>384.2350227055333</v>
       </c>
       <c r="G14" t="n">
-        <v>390.0380203471443</v>
+        <v>390.0380203471444</v>
       </c>
       <c r="H14" t="n">
-        <v>289.9638715521641</v>
+        <v>289.9638715521642</v>
       </c>
       <c r="I14" t="n">
-        <v>86.68489851752601</v>
+        <v>86.68489851752605</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>126.5916165213896</v>
+        <v>126.5916165213897</v>
       </c>
       <c r="T14" t="n">
-        <v>188.9696054659439</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>228.4947343411133</v>
       </c>
       <c r="V14" t="n">
-        <v>305.1112354339567</v>
+        <v>296.9915507133827</v>
       </c>
       <c r="W14" t="n">
         <v>326.5999456812348</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>347.0900776422909</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>363.5969156198754</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>157.1909571457591</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>144.6057980624497</v>
       </c>
       <c r="D16" t="n">
-        <v>125.9744499820341</v>
+        <v>125.9744499820342</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.61418397588313</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.7347157997415</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>200.2759985202094</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>229.4966202876498</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>253.3939466014065</v>
+        <v>263.8819753004128</v>
       </c>
       <c r="X16" t="n">
-        <v>203.0686323528589</v>
+        <v>203.068632352859</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.9436303159166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>300.105220124059</v>
       </c>
       <c r="C17" t="n">
-        <v>282.6442702315859</v>
+        <v>282.644270231586</v>
       </c>
       <c r="D17" t="n">
         <v>272.0544200812614</v>
@@ -1853,16 +1853,16 @@
         <v>299.3017485328402</v>
       </c>
       <c r="F17" t="n">
-        <v>324.2474242022898</v>
+        <v>324.2474242022899</v>
       </c>
       <c r="G17" t="n">
-        <v>330.0504218439009</v>
+        <v>330.050421843901</v>
       </c>
       <c r="H17" t="n">
-        <v>229.9762730489207</v>
+        <v>229.9762730489208</v>
       </c>
       <c r="I17" t="n">
-        <v>26.69730001428263</v>
+        <v>26.69730001428269</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.60401801814623</v>
+        <v>66.60401801814629</v>
       </c>
       <c r="T17" t="n">
-        <v>128.9820069627005</v>
+        <v>128.9820069627006</v>
       </c>
       <c r="U17" t="n">
-        <v>168.5071358378699</v>
+        <v>168.50713583787</v>
       </c>
       <c r="V17" t="n">
-        <v>245.1236369307133</v>
+        <v>245.1236369307134</v>
       </c>
       <c r="W17" t="n">
-        <v>266.6123471779914</v>
+        <v>266.6123471779915</v>
       </c>
       <c r="X17" t="n">
-        <v>287.1024791390474</v>
+        <v>287.1024791390475</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.609317116632</v>
+        <v>303.6093171166322</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.2033586425157</v>
+        <v>97.20335864251575</v>
       </c>
       <c r="C19" t="n">
-        <v>84.61819955920623</v>
+        <v>84.61819955920629</v>
       </c>
       <c r="D19" t="n">
-        <v>65.98685147879075</v>
+        <v>65.98685147879081</v>
       </c>
       <c r="E19" t="n">
-        <v>63.80534110714757</v>
+        <v>63.80534110714763</v>
       </c>
       <c r="F19" t="n">
-        <v>62.79242648350964</v>
+        <v>62.7924264835097</v>
       </c>
       <c r="G19" t="n">
-        <v>84.1854589554024</v>
+        <v>84.18545895540247</v>
       </c>
       <c r="H19" t="n">
-        <v>69.1348501622472</v>
+        <v>69.13485016224726</v>
       </c>
       <c r="I19" t="n">
-        <v>37.42929483416621</v>
+        <v>37.42929483416627</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.74711729649817</v>
+        <v>41.74711729649823</v>
       </c>
       <c r="S19" t="n">
-        <v>120.8778390285705</v>
+        <v>120.8778390285706</v>
       </c>
       <c r="T19" t="n">
         <v>140.288400016966</v>
@@ -2059,10 +2059,10 @@
         <v>203.6262133335983</v>
       </c>
       <c r="V19" t="n">
-        <v>169.5090217844064</v>
+        <v>169.5090217844065</v>
       </c>
       <c r="W19" t="n">
-        <v>203.8943767971694</v>
+        <v>203.8943767971695</v>
       </c>
       <c r="X19" t="n">
         <v>143.0810338496156</v>
@@ -2081,7 +2081,7 @@
         <v>300.105220124059</v>
       </c>
       <c r="C20" t="n">
-        <v>282.6442702315859</v>
+        <v>282.644270231586</v>
       </c>
       <c r="D20" t="n">
         <v>272.0544200812614</v>
@@ -2090,16 +2090,16 @@
         <v>299.3017485328402</v>
       </c>
       <c r="F20" t="n">
-        <v>324.2474242022898</v>
+        <v>324.2474242022899</v>
       </c>
       <c r="G20" t="n">
-        <v>330.0504218439009</v>
+        <v>330.050421843901</v>
       </c>
       <c r="H20" t="n">
-        <v>229.9762730489207</v>
+        <v>229.9762730489208</v>
       </c>
       <c r="I20" t="n">
-        <v>26.69730001428263</v>
+        <v>26.69730001428269</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.60401801814623</v>
+        <v>66.60401801814629</v>
       </c>
       <c r="T20" t="n">
-        <v>128.9820069627005</v>
+        <v>128.9820069627006</v>
       </c>
       <c r="U20" t="n">
-        <v>168.5071358378699</v>
+        <v>168.50713583787</v>
       </c>
       <c r="V20" t="n">
-        <v>245.1236369307133</v>
+        <v>245.1236369307134</v>
       </c>
       <c r="W20" t="n">
-        <v>266.6123471779914</v>
+        <v>266.6123471779915</v>
       </c>
       <c r="X20" t="n">
-        <v>287.1024791390474</v>
+        <v>287.1024791390475</v>
       </c>
       <c r="Y20" t="n">
         <v>303.609317116632</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.2033586425157</v>
+        <v>97.20335864251575</v>
       </c>
       <c r="C22" t="n">
-        <v>84.61819955920623</v>
+        <v>84.61819955920629</v>
       </c>
       <c r="D22" t="n">
-        <v>65.98685147879075</v>
+        <v>65.98685147879081</v>
       </c>
       <c r="E22" t="n">
-        <v>63.80534110714757</v>
+        <v>63.80534110714763</v>
       </c>
       <c r="F22" t="n">
-        <v>62.79242648350964</v>
+        <v>62.7924264835097</v>
       </c>
       <c r="G22" t="n">
-        <v>84.18545895540241</v>
+        <v>84.18545895540247</v>
       </c>
       <c r="H22" t="n">
-        <v>69.1348501622472</v>
+        <v>69.13485016224726</v>
       </c>
       <c r="I22" t="n">
-        <v>37.42929483416621</v>
+        <v>37.42929483416627</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.74711729649817</v>
+        <v>41.74711729649823</v>
       </c>
       <c r="S22" t="n">
-        <v>120.8778390285705</v>
+        <v>120.8778390285706</v>
       </c>
       <c r="T22" t="n">
         <v>140.288400016966</v>
@@ -2296,10 +2296,10 @@
         <v>203.6262133335983</v>
       </c>
       <c r="V22" t="n">
-        <v>169.5090217844064</v>
+        <v>169.5090217844065</v>
       </c>
       <c r="W22" t="n">
-        <v>203.8943767971694</v>
+        <v>203.8943767971695</v>
       </c>
       <c r="X22" t="n">
         <v>143.0810338496156</v>
@@ -2318,7 +2318,7 @@
         <v>300.105220124059</v>
       </c>
       <c r="C23" t="n">
-        <v>282.6442702315859</v>
+        <v>282.644270231586</v>
       </c>
       <c r="D23" t="n">
         <v>272.0544200812614</v>
@@ -2327,16 +2327,16 @@
         <v>299.3017485328402</v>
       </c>
       <c r="F23" t="n">
-        <v>324.2474242022898</v>
+        <v>324.2474242022899</v>
       </c>
       <c r="G23" t="n">
-        <v>330.0504218439009</v>
+        <v>330.050421843901</v>
       </c>
       <c r="H23" t="n">
-        <v>229.9762730489207</v>
+        <v>229.9762730489208</v>
       </c>
       <c r="I23" t="n">
-        <v>26.69730001428263</v>
+        <v>26.69730001428269</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.60401801814623</v>
+        <v>66.60401801814629</v>
       </c>
       <c r="T23" t="n">
-        <v>128.9820069627005</v>
+        <v>128.9820069627006</v>
       </c>
       <c r="U23" t="n">
-        <v>168.5071358378699</v>
+        <v>168.50713583787</v>
       </c>
       <c r="V23" t="n">
-        <v>245.1236369307133</v>
+        <v>245.1236369307134</v>
       </c>
       <c r="W23" t="n">
-        <v>266.6123471779914</v>
+        <v>266.6123471779915</v>
       </c>
       <c r="X23" t="n">
-        <v>287.1024791390474</v>
+        <v>287.1024791390475</v>
       </c>
       <c r="Y23" t="n">
         <v>303.609317116632</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.2033586425157</v>
+        <v>97.20335864251575</v>
       </c>
       <c r="C25" t="n">
-        <v>84.61819955920623</v>
+        <v>84.61819955920629</v>
       </c>
       <c r="D25" t="n">
-        <v>65.98685147879075</v>
+        <v>65.98685147879081</v>
       </c>
       <c r="E25" t="n">
-        <v>63.80534110714757</v>
+        <v>63.80534110714763</v>
       </c>
       <c r="F25" t="n">
-        <v>62.79242648350964</v>
+        <v>62.7924264835097</v>
       </c>
       <c r="G25" t="n">
-        <v>84.18545895540241</v>
+        <v>84.18545895540247</v>
       </c>
       <c r="H25" t="n">
-        <v>69.1348501622472</v>
+        <v>69.13485016224726</v>
       </c>
       <c r="I25" t="n">
-        <v>37.42929483416621</v>
+        <v>37.42929483416627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.74711729649817</v>
+        <v>41.74711729649823</v>
       </c>
       <c r="S25" t="n">
-        <v>120.8778390285705</v>
+        <v>120.8778390285706</v>
       </c>
       <c r="T25" t="n">
         <v>140.288400016966</v>
@@ -2533,10 +2533,10 @@
         <v>203.6262133335983</v>
       </c>
       <c r="V25" t="n">
-        <v>169.5090217844064</v>
+        <v>169.5090217844065</v>
       </c>
       <c r="W25" t="n">
-        <v>203.8943767971694</v>
+        <v>203.8943767971695</v>
       </c>
       <c r="X25" t="n">
         <v>143.0810338496156</v>
@@ -2570,10 +2570,10 @@
         <v>352.6577079386141</v>
       </c>
       <c r="H26" t="n">
-        <v>252.5835591436339</v>
+        <v>252.5835591436338</v>
       </c>
       <c r="I26" t="n">
-        <v>49.30458610899574</v>
+        <v>49.30458610899573</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.21130411285934</v>
+        <v>89.21130411285932</v>
       </c>
       <c r="T26" t="n">
         <v>151.5892930574136</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>107.2254856539193</v>
       </c>
       <c r="D28" t="n">
-        <v>88.59413757350386</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>86.41262720186067</v>
+        <v>86.41262720186066</v>
       </c>
       <c r="F28" t="n">
-        <v>85.39971257822275</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>106.7927450501155</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>13.40017079807522</v>
       </c>
       <c r="I28" t="n">
-        <v>60.03658092887932</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>64.35440339121126</v>
       </c>
       <c r="S28" t="n">
         <v>143.4851251232836</v>
@@ -2776,10 +2776,10 @@
         <v>226.5016628918825</v>
       </c>
       <c r="X28" t="n">
-        <v>165.6883199443287</v>
+        <v>165.6883199443286</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.720201619871162</v>
+        <v>158.5633179073863</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>294.6617061759745</v>
       </c>
       <c r="E29" t="n">
-        <v>321.9090346275534</v>
+        <v>321.9090346275533</v>
       </c>
       <c r="F29" t="n">
         <v>346.854710297003</v>
@@ -2807,10 +2807,10 @@
         <v>352.6577079386141</v>
       </c>
       <c r="H29" t="n">
-        <v>252.5835591436339</v>
+        <v>252.5835591436338</v>
       </c>
       <c r="I29" t="n">
-        <v>49.30458610899579</v>
+        <v>49.30458610899573</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.21130411285939</v>
+        <v>89.21130411285932</v>
       </c>
       <c r="T29" t="n">
-        <v>151.5892930574137</v>
+        <v>151.5892930574136</v>
       </c>
       <c r="U29" t="n">
-        <v>191.1144219325831</v>
+        <v>191.114421932583</v>
       </c>
       <c r="V29" t="n">
-        <v>267.7309230254265</v>
+        <v>267.7309230254264</v>
       </c>
       <c r="W29" t="n">
-        <v>289.2196332727046</v>
+        <v>289.2196332727045</v>
       </c>
       <c r="X29" t="n">
-        <v>309.7097652337606</v>
+        <v>309.7097652337605</v>
       </c>
       <c r="Y29" t="n">
-        <v>326.2166032113452</v>
+        <v>326.2166032113451</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.8106447372289</v>
+        <v>119.8106447372288</v>
       </c>
       <c r="C31" t="n">
-        <v>107.2254856539194</v>
+        <v>107.2254856539193</v>
       </c>
       <c r="D31" t="n">
-        <v>88.59413757350391</v>
+        <v>88.59413757350384</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>86.41262720186066</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>85.39971257822273</v>
       </c>
       <c r="G31" t="n">
-        <v>106.7927450501156</v>
+        <v>106.7927450501155</v>
       </c>
       <c r="H31" t="n">
-        <v>91.74213625696036</v>
+        <v>91.74213625696029</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>53.94326872888917</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>64.35440339121126</v>
       </c>
       <c r="S31" t="n">
-        <v>143.4851251232837</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>162.8956861116791</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>226.2334994283114</v>
       </c>
       <c r="V31" t="n">
-        <v>192.1163078791196</v>
+        <v>192.1163078791195</v>
       </c>
       <c r="W31" t="n">
-        <v>209.962700093531</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>165.6883199443287</v>
+        <v>165.6883199443286</v>
       </c>
       <c r="Y31" t="n">
-        <v>158.5633179073864</v>
+        <v>158.5633179073863</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>300.105220124059</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>282.6442702315859</v>
       </c>
       <c r="D32" t="n">
         <v>272.0544200812614</v>
@@ -3038,16 +3038,16 @@
         <v>299.3017485328402</v>
       </c>
       <c r="F32" t="n">
-        <v>324.2474242022898</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>330.0504218439009</v>
+        <v>361.8869848975972</v>
       </c>
       <c r="H32" t="n">
-        <v>261.8128361026172</v>
+        <v>229.9762730489207</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730001428262</v>
+        <v>26.69730001428263</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.60401801814622</v>
+        <v>66.60401801814623</v>
       </c>
       <c r="T32" t="n">
-        <v>128.9820069627005</v>
+        <v>211.6106285021221</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1357573772915</v>
+        <v>168.5071358378699</v>
       </c>
       <c r="V32" t="n">
         <v>245.1236369307133</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.20335864251632</v>
+        <v>97.2033586425157</v>
       </c>
       <c r="C34" t="n">
-        <v>84.61819955920622</v>
+        <v>84.61819955920623</v>
       </c>
       <c r="D34" t="n">
-        <v>65.98685147879074</v>
+        <v>65.98685147879075</v>
       </c>
       <c r="E34" t="n">
-        <v>63.80534110714756</v>
+        <v>63.80534110714757</v>
       </c>
       <c r="F34" t="n">
-        <v>62.79242648350963</v>
+        <v>62.79242648350964</v>
       </c>
       <c r="G34" t="n">
-        <v>84.18545895540238</v>
+        <v>84.1854589554024</v>
       </c>
       <c r="H34" t="n">
-        <v>69.13485016224718</v>
+        <v>69.1348501622472</v>
       </c>
       <c r="I34" t="n">
-        <v>37.4292948341662</v>
+        <v>37.42929483416621</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.74711729649816</v>
+        <v>41.74711729649817</v>
       </c>
       <c r="S34" t="n">
         <v>120.8778390285705</v>
@@ -3284,7 +3284,7 @@
         <v>229.9762730489207</v>
       </c>
       <c r="I35" t="n">
-        <v>26.69730001428263</v>
+        <v>26.69730001428265</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.60401801814623</v>
+        <v>66.60401801814625</v>
       </c>
       <c r="T35" t="n">
-        <v>128.9820069627005</v>
+        <v>128.9820069627006</v>
       </c>
       <c r="U35" t="n">
         <v>168.5071358378699</v>
@@ -3363,7 +3363,7 @@
         <v>98.67769044909107</v>
       </c>
       <c r="I36" t="n">
-        <v>41.06404101166382</v>
+        <v>41.06404101166381</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>12.99908637130314</v>
+        <v>12.99908637130312</v>
       </c>
       <c r="S36" t="n">
         <v>145.6081995826472</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.20335864251568</v>
+        <v>97.20335864251571</v>
       </c>
       <c r="C37" t="n">
-        <v>84.61819955920622</v>
+        <v>84.61819955920625</v>
       </c>
       <c r="D37" t="n">
-        <v>65.98685147879074</v>
+        <v>65.98685147879077</v>
       </c>
       <c r="E37" t="n">
-        <v>63.80534110714756</v>
+        <v>63.80534110714758</v>
       </c>
       <c r="F37" t="n">
-        <v>62.79242648350963</v>
+        <v>62.79242648350966</v>
       </c>
       <c r="G37" t="n">
-        <v>84.18545895540238</v>
+        <v>84.18545895540241</v>
       </c>
       <c r="H37" t="n">
-        <v>69.13485016224719</v>
+        <v>69.13485016224722</v>
       </c>
       <c r="I37" t="n">
-        <v>37.42929483416621</v>
+        <v>37.42929483416623</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.74711729649817</v>
+        <v>41.74711729649819</v>
       </c>
       <c r="S37" t="n">
         <v>120.8778390285705</v>
@@ -3521,7 +3521,7 @@
         <v>229.9762730489207</v>
       </c>
       <c r="I38" t="n">
-        <v>26.69730001428263</v>
+        <v>26.69730001428265</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.60401801814623</v>
+        <v>66.60401801814625</v>
       </c>
       <c r="T38" t="n">
-        <v>128.9820069627005</v>
+        <v>128.9820069627006</v>
       </c>
       <c r="U38" t="n">
         <v>168.5071358378699</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.2033586425157</v>
+        <v>97.20335864251571</v>
       </c>
       <c r="C40" t="n">
-        <v>84.61819955920623</v>
+        <v>84.61819955920625</v>
       </c>
       <c r="D40" t="n">
-        <v>65.98685147879075</v>
+        <v>65.98685147879077</v>
       </c>
       <c r="E40" t="n">
-        <v>63.80534110714757</v>
+        <v>63.80534110714758</v>
       </c>
       <c r="F40" t="n">
-        <v>62.79242648350964</v>
+        <v>62.79242648350966</v>
       </c>
       <c r="G40" t="n">
-        <v>84.1854589554024</v>
+        <v>84.18545895540242</v>
       </c>
       <c r="H40" t="n">
         <v>69.1348501622472</v>
       </c>
       <c r="I40" t="n">
-        <v>37.42929483416621</v>
+        <v>37.42929483416623</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.74711729649817</v>
+        <v>41.74711729649819</v>
       </c>
       <c r="S40" t="n">
         <v>120.8778390285705</v>
@@ -3740,7 +3740,7 @@
         <v>300.105220124059</v>
       </c>
       <c r="C41" t="n">
-        <v>282.644270231586</v>
+        <v>282.6442702315859</v>
       </c>
       <c r="D41" t="n">
         <v>272.0544200812614</v>
@@ -3749,16 +3749,16 @@
         <v>299.3017485328402</v>
       </c>
       <c r="F41" t="n">
-        <v>324.2474242022899</v>
+        <v>324.2474242022898</v>
       </c>
       <c r="G41" t="n">
-        <v>330.050421843901</v>
+        <v>330.0504218439009</v>
       </c>
       <c r="H41" t="n">
-        <v>229.9762730489208</v>
+        <v>229.9762730489207</v>
       </c>
       <c r="I41" t="n">
-        <v>26.6973000142827</v>
+        <v>26.69730001428263</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.60401801814631</v>
+        <v>66.60401801814623</v>
       </c>
       <c r="T41" t="n">
-        <v>128.9820069627006</v>
+        <v>128.9820069627005</v>
       </c>
       <c r="U41" t="n">
-        <v>168.50713583787</v>
+        <v>168.5071358378699</v>
       </c>
       <c r="V41" t="n">
-        <v>245.1236369307134</v>
+        <v>245.1236369307133</v>
       </c>
       <c r="W41" t="n">
-        <v>266.6123471779915</v>
+        <v>266.6123471779914</v>
       </c>
       <c r="X41" t="n">
-        <v>287.1024791390475</v>
+        <v>287.1024791390474</v>
       </c>
       <c r="Y41" t="n">
         <v>303.609317116632</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.20335864251577</v>
+        <v>97.2033586425157</v>
       </c>
       <c r="C43" t="n">
-        <v>84.6181995592063</v>
+        <v>84.61819955920623</v>
       </c>
       <c r="D43" t="n">
-        <v>65.98685147879083</v>
+        <v>65.98685147879075</v>
       </c>
       <c r="E43" t="n">
-        <v>63.80534110714764</v>
+        <v>63.80534110714757</v>
       </c>
       <c r="F43" t="n">
-        <v>62.79242648350971</v>
+        <v>62.79242648350964</v>
       </c>
       <c r="G43" t="n">
-        <v>84.18545895540248</v>
+        <v>84.18545895540241</v>
       </c>
       <c r="H43" t="n">
-        <v>69.13485016224726</v>
+        <v>69.1348501622472</v>
       </c>
       <c r="I43" t="n">
-        <v>37.42929483416628</v>
+        <v>37.42929483416621</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.74711729649825</v>
+        <v>41.74711729649817</v>
       </c>
       <c r="S43" t="n">
-        <v>120.8778390285706</v>
+        <v>120.8778390285705</v>
       </c>
       <c r="T43" t="n">
         <v>140.288400016966</v>
@@ -3955,10 +3955,10 @@
         <v>203.6262133335983</v>
       </c>
       <c r="V43" t="n">
-        <v>169.5090217844065</v>
+        <v>169.5090217844064</v>
       </c>
       <c r="W43" t="n">
-        <v>203.8943767971695</v>
+        <v>203.8943767971694</v>
       </c>
       <c r="X43" t="n">
         <v>143.0810338496156</v>
@@ -3977,7 +3977,7 @@
         <v>300.105220124059</v>
       </c>
       <c r="C44" t="n">
-        <v>282.644270231586</v>
+        <v>282.6442702315859</v>
       </c>
       <c r="D44" t="n">
         <v>272.0544200812614</v>
@@ -3986,16 +3986,16 @@
         <v>299.3017485328402</v>
       </c>
       <c r="F44" t="n">
-        <v>324.2474242022899</v>
+        <v>324.2474242022898</v>
       </c>
       <c r="G44" t="n">
-        <v>330.050421843901</v>
+        <v>330.0504218439009</v>
       </c>
       <c r="H44" t="n">
-        <v>229.9762730489208</v>
+        <v>229.9762730489207</v>
       </c>
       <c r="I44" t="n">
-        <v>26.69730001428269</v>
+        <v>26.69730001428263</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.60401801814629</v>
+        <v>66.60401801814623</v>
       </c>
       <c r="T44" t="n">
-        <v>128.9820069627006</v>
+        <v>128.9820069627005</v>
       </c>
       <c r="U44" t="n">
-        <v>168.50713583787</v>
+        <v>168.5071358378699</v>
       </c>
       <c r="V44" t="n">
-        <v>245.1236369307134</v>
+        <v>245.1236369307133</v>
       </c>
       <c r="W44" t="n">
-        <v>266.6123471779915</v>
+        <v>266.6123471779914</v>
       </c>
       <c r="X44" t="n">
-        <v>287.1024791390475</v>
+        <v>287.1024791390474</v>
       </c>
       <c r="Y44" t="n">
         <v>303.609317116632</v>
@@ -4074,7 +4074,7 @@
         <v>98.67769044909107</v>
       </c>
       <c r="I45" t="n">
-        <v>41.0640410116638</v>
+        <v>41.06404101166381</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.99908637130311</v>
+        <v>12.99908637130312</v>
       </c>
       <c r="S45" t="n">
         <v>145.6081995826472</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.20335864251577</v>
+        <v>97.2033586425157</v>
       </c>
       <c r="C46" t="n">
-        <v>84.6181995592063</v>
+        <v>84.61819955920623</v>
       </c>
       <c r="D46" t="n">
-        <v>65.98685147879083</v>
+        <v>65.98685147879075</v>
       </c>
       <c r="E46" t="n">
-        <v>63.80534110714764</v>
+        <v>63.80534110714757</v>
       </c>
       <c r="F46" t="n">
-        <v>62.79242648350971</v>
+        <v>62.79242648350964</v>
       </c>
       <c r="G46" t="n">
-        <v>84.18545895540247</v>
+        <v>84.1854589554024</v>
       </c>
       <c r="H46" t="n">
-        <v>69.13485016224726</v>
+        <v>69.1348501622472</v>
       </c>
       <c r="I46" t="n">
-        <v>37.42929483416628</v>
+        <v>37.42929483416621</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74711729649824</v>
+        <v>41.74711729649817</v>
       </c>
       <c r="S46" t="n">
-        <v>120.8778390285706</v>
+        <v>120.8778390285705</v>
       </c>
       <c r="T46" t="n">
         <v>140.288400016966</v>
@@ -4192,10 +4192,10 @@
         <v>203.6262133335983</v>
       </c>
       <c r="V46" t="n">
-        <v>169.5090217844065</v>
+        <v>169.5090217844064</v>
       </c>
       <c r="W46" t="n">
-        <v>203.8943767971695</v>
+        <v>203.8943767971694</v>
       </c>
       <c r="X46" t="n">
         <v>143.0810338496156</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C8" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D8" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E8" t="n">
         <v>35.69701961884617</v>
@@ -4805,49 +4805,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M8" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N8" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O8" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="S8" t="n">
-        <v>61.2109500605402</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="T8" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="U8" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V8" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W8" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X8" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>30.29632881784312</v>
       </c>
       <c r="D9" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E9" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F9" t="n">
-        <v>14.83901819649459</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G9" t="n">
-        <v>14.83901819649459</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H9" t="n">
-        <v>14.83901819649459</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I9" t="n">
         <v>1.224219001210804</v>
@@ -4887,31 +4887,31 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M9" t="n">
-        <v>31.52363928117821</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="N9" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="O9" t="n">
+        <v>30.9115297805728</v>
+      </c>
+      <c r="P9" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="P9" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U9" t="n">
         <v>30.29632881784312</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.83901819649459</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="C10" t="n">
-        <v>14.83901819649459</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="D10" t="n">
-        <v>14.83901819649459</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="E10" t="n">
-        <v>14.83901819649459</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="F10" t="n">
-        <v>14.83901819649459</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="G10" t="n">
-        <v>14.83901819649459</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="H10" t="n">
-        <v>14.83901819649459</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="I10" t="n">
-        <v>1.224219001210804</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="J10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4969,43 +4969,43 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N10" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>45.75363943919166</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R10" t="n">
-        <v>45.75363943919166</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="S10" t="n">
-        <v>30.29632881784312</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="T10" t="n">
-        <v>30.29632881784312</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="U10" t="n">
-        <v>30.29632881784312</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="V10" t="n">
-        <v>30.29632881784312</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="W10" t="n">
-        <v>14.83901819649459</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="X10" t="n">
-        <v>14.83901819649459</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.83901819649459</v>
+        <v>58.46202002507908</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2051.348414525718</v>
+        <v>2279.756449096551</v>
       </c>
       <c r="C11" t="n">
         <v>1933.663652394704</v>
@@ -5027,43 +5027,43 @@
         <v>1235.349141666837</v>
       </c>
       <c r="F11" t="n">
-        <v>847.2329571157934</v>
+        <v>847.2329571157929</v>
       </c>
       <c r="G11" t="n">
-        <v>453.2551587853443</v>
+        <v>453.2551587853444</v>
       </c>
       <c r="H11" t="n">
         <v>160.3623592377039</v>
       </c>
       <c r="I11" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J11" t="n">
-        <v>281.4279914453035</v>
+        <v>114.0223424249505</v>
       </c>
       <c r="K11" t="n">
-        <v>714.8492924515756</v>
+        <v>547.4436434312225</v>
       </c>
       <c r="L11" t="n">
-        <v>1172.480572579799</v>
+        <v>1137.417720604823</v>
       </c>
       <c r="M11" t="n">
-        <v>1845.5469547431</v>
+        <v>1810.484102768124</v>
       </c>
       <c r="N11" t="n">
-        <v>2514.872257093228</v>
+        <v>2479.809405118252</v>
       </c>
       <c r="O11" t="n">
-        <v>3101.709522440786</v>
+        <v>2906.309775168135</v>
       </c>
       <c r="P11" t="n">
-        <v>3564.887168547417</v>
+        <v>3369.487421274766</v>
       </c>
       <c r="Q11" t="n">
-        <v>3625.300690751712</v>
+        <v>3640.092784232367</v>
       </c>
       <c r="R11" t="n">
-        <v>3640.092784232366</v>
+        <v>3640.092784232367</v>
       </c>
       <c r="S11" t="n">
         <v>3512.222464513791</v>
@@ -5072,19 +5072,19 @@
         <v>3321.344075154252</v>
       </c>
       <c r="U11" t="n">
-        <v>3090.541313193531</v>
+        <v>3321.344075154252</v>
       </c>
       <c r="V11" t="n">
-        <v>2782.348146088525</v>
+        <v>3013.150908049245</v>
       </c>
       <c r="W11" t="n">
-        <v>2782.348146088525</v>
+        <v>3013.150908049245</v>
       </c>
       <c r="X11" t="n">
-        <v>2782.348146088525</v>
+        <v>2662.554870026729</v>
       </c>
       <c r="Y11" t="n">
-        <v>2415.078534351277</v>
+        <v>2295.285258289481</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>497.802523258054</v>
       </c>
       <c r="F12" t="n">
-        <v>351.2679652849389</v>
+        <v>351.267965284939</v>
       </c>
       <c r="G12" t="n">
-        <v>213.9551197864199</v>
+        <v>213.95511978642</v>
       </c>
       <c r="H12" t="n">
-        <v>114.2806849893582</v>
+        <v>114.2806849893583</v>
       </c>
       <c r="I12" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J12" t="n">
         <v>203.3647732285796</v>
       </c>
       <c r="K12" t="n">
-        <v>305.0276228867901</v>
+        <v>553.1384381815101</v>
       </c>
       <c r="L12" t="n">
-        <v>836.7458764540714</v>
+        <v>1084.856691748791</v>
       </c>
       <c r="M12" t="n">
-        <v>1048.167207365108</v>
+        <v>1296.278022659828</v>
       </c>
       <c r="N12" t="n">
-        <v>1754.141827317422</v>
+        <v>1527.703692012024</v>
       </c>
       <c r="O12" t="n">
-        <v>1943.631306901584</v>
+        <v>2107.116867680149</v>
       </c>
       <c r="P12" t="n">
-        <v>2391.65839466575</v>
+        <v>2555.143955444315</v>
       </c>
       <c r="Q12" t="n">
         <v>2638.454868513485</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.2027580456671</v>
+        <v>473.9012958205336</v>
       </c>
       <c r="C13" t="n">
-        <v>171.2027580456671</v>
+        <v>473.9012958205336</v>
       </c>
       <c r="D13" t="n">
-        <v>171.2027580456671</v>
+        <v>473.9012958205336</v>
       </c>
       <c r="E13" t="n">
-        <v>171.2027580456671</v>
+        <v>348.8579224767043</v>
       </c>
       <c r="F13" t="n">
-        <v>171.2027580456671</v>
+        <v>348.8579224767043</v>
       </c>
       <c r="G13" t="n">
-        <v>171.2027580456671</v>
+        <v>203.2285715083752</v>
       </c>
       <c r="H13" t="n">
-        <v>171.2027580456671</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="I13" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J13" t="n">
-        <v>85.16556233734468</v>
+        <v>85.16556233734462</v>
       </c>
       <c r="K13" t="n">
-        <v>220.9002855308059</v>
+        <v>220.9002855308058</v>
       </c>
       <c r="L13" t="n">
         <v>443.8520594872795</v>
@@ -5209,7 +5209,7 @@
         <v>688.0941144362039</v>
       </c>
       <c r="N13" t="n">
-        <v>932.4962250415306</v>
+        <v>932.4962250415304</v>
       </c>
       <c r="O13" t="n">
         <v>1143.935926268384</v>
@@ -5221,28 +5221,28 @@
         <v>1339.251403965711</v>
       </c>
       <c r="R13" t="n">
-        <v>1236.489064774054</v>
+        <v>1339.251403965711</v>
       </c>
       <c r="S13" t="n">
-        <v>1236.489064774054</v>
+        <v>1156.559042822465</v>
       </c>
       <c r="T13" t="n">
-        <v>1236.489064774054</v>
+        <v>1156.559042822465</v>
       </c>
       <c r="U13" t="n">
-        <v>970.2124871610822</v>
+        <v>899.2274902106062</v>
       </c>
       <c r="V13" t="n">
-        <v>970.2124871610822</v>
+        <v>899.2274902106062</v>
       </c>
       <c r="W13" t="n">
-        <v>703.6650373626856</v>
+        <v>632.6800404122095</v>
       </c>
       <c r="X13" t="n">
-        <v>527.9043615423092</v>
+        <v>632.6800404122095</v>
       </c>
       <c r="Y13" t="n">
-        <v>329.9815026373429</v>
+        <v>632.6800404122095</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2088.719091231416</v>
+        <v>1933.663652394705</v>
       </c>
       <c r="C14" t="n">
-        <v>1742.626294529568</v>
+        <v>1933.663652394705</v>
       </c>
       <c r="D14" t="n">
-        <v>1407.230316161381</v>
+        <v>1598.267674026518</v>
       </c>
       <c r="E14" t="n">
-        <v>1044.311783801701</v>
+        <v>1235.349141666838</v>
       </c>
       <c r="F14" t="n">
-        <v>847.2329571157933</v>
+        <v>847.2329571157939</v>
       </c>
       <c r="G14" t="n">
-        <v>453.2551587853445</v>
+        <v>453.2551587853444</v>
       </c>
       <c r="H14" t="n">
-        <v>160.3623592377039</v>
+        <v>160.362359237704</v>
       </c>
       <c r="I14" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J14" t="n">
         <v>281.4279914453035</v>
@@ -5282,46 +5282,46 @@
         <v>714.8492924515756</v>
       </c>
       <c r="L14" t="n">
-        <v>962.2887318264934</v>
+        <v>1304.823369625176</v>
       </c>
       <c r="M14" t="n">
-        <v>1635.355113989794</v>
+        <v>1977.889751788477</v>
       </c>
       <c r="N14" t="n">
-        <v>2304.680416339922</v>
+        <v>2647.215054138605</v>
       </c>
       <c r="O14" t="n">
-        <v>2891.51768168748</v>
+        <v>2906.309775168135</v>
       </c>
       <c r="P14" t="n">
-        <v>3354.695327794111</v>
+        <v>3369.487421274766</v>
       </c>
       <c r="Q14" t="n">
-        <v>3625.300690751712</v>
+        <v>3640.092784232367</v>
       </c>
       <c r="R14" t="n">
-        <v>3640.092784232366</v>
+        <v>3640.092784232367</v>
       </c>
       <c r="S14" t="n">
         <v>3512.222464513791</v>
       </c>
       <c r="T14" t="n">
-        <v>3321.344075154252</v>
+        <v>3512.222464513791</v>
       </c>
       <c r="U14" t="n">
-        <v>3090.541313193531</v>
+        <v>3281.419702553072</v>
       </c>
       <c r="V14" t="n">
-        <v>2782.348146088524</v>
+        <v>2981.428237186019</v>
       </c>
       <c r="W14" t="n">
-        <v>2452.449211056974</v>
+        <v>2651.529302154468</v>
       </c>
       <c r="X14" t="n">
-        <v>2452.449211056974</v>
+        <v>2300.933264131952</v>
       </c>
       <c r="Y14" t="n">
-        <v>2452.449211056974</v>
+        <v>1933.663652394705</v>
       </c>
     </row>
     <row r="15">
@@ -5343,16 +5343,16 @@
         <v>497.802523258054</v>
       </c>
       <c r="F15" t="n">
-        <v>351.2679652849389</v>
+        <v>351.267965284939</v>
       </c>
       <c r="G15" t="n">
-        <v>213.9551197864199</v>
+        <v>213.95511978642</v>
       </c>
       <c r="H15" t="n">
-        <v>114.2806849893582</v>
+        <v>114.2806849893583</v>
       </c>
       <c r="I15" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J15" t="n">
         <v>203.3647732285796</v>
@@ -5361,10 +5361,10 @@
         <v>553.1384381815101</v>
       </c>
       <c r="L15" t="n">
-        <v>717.7247498983668</v>
+        <v>1084.856691748791</v>
       </c>
       <c r="M15" t="n">
-        <v>1048.167207365108</v>
+        <v>1522.716157965227</v>
       </c>
       <c r="N15" t="n">
         <v>1754.141827317422</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>345.6781258267483</v>
+        <v>506.5063905119328</v>
       </c>
       <c r="C16" t="n">
-        <v>345.6781258267483</v>
+        <v>360.4399278225897</v>
       </c>
       <c r="D16" t="n">
-        <v>218.4312066529764</v>
+        <v>233.1930086488178</v>
       </c>
       <c r="E16" t="n">
         <v>218.4312066529764</v>
@@ -5425,16 +5425,16 @@
         <v>218.4312066529764</v>
       </c>
       <c r="G16" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="H16" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="I16" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J16" t="n">
-        <v>85.16556233734465</v>
+        <v>85.1655623373447</v>
       </c>
       <c r="K16" t="n">
         <v>220.9002855308059</v>
@@ -5446,7 +5446,7 @@
         <v>688.0941144362039</v>
       </c>
       <c r="N16" t="n">
-        <v>932.4962250415305</v>
+        <v>932.4962250415304</v>
       </c>
       <c r="O16" t="n">
         <v>1143.935926268384</v>
@@ -5458,28 +5458,28 @@
         <v>1339.251403965711</v>
       </c>
       <c r="R16" t="n">
-        <v>1236.489064774053</v>
+        <v>1339.251403965711</v>
       </c>
       <c r="S16" t="n">
-        <v>1236.489064774053</v>
+        <v>1339.251403965711</v>
       </c>
       <c r="T16" t="n">
-        <v>1236.489064774053</v>
+        <v>1136.952415561459</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.489064774053</v>
+        <v>1136.952415561459</v>
       </c>
       <c r="V16" t="n">
-        <v>1004.67429680673</v>
+        <v>1136.952415561459</v>
       </c>
       <c r="W16" t="n">
-        <v>748.720815391168</v>
+        <v>870.4049657630621</v>
       </c>
       <c r="X16" t="n">
-        <v>543.6009847317146</v>
+        <v>665.2851351036086</v>
       </c>
       <c r="Y16" t="n">
-        <v>345.6781258267483</v>
+        <v>665.2851351036086</v>
       </c>
     </row>
     <row r="17">
@@ -5495,49 +5495,49 @@
         <v>1570.102449344744</v>
       </c>
       <c r="D17" t="n">
-        <v>1295.300004818217</v>
+        <v>1295.300004818218</v>
       </c>
       <c r="E17" t="n">
-        <v>992.9750063001969</v>
+        <v>992.9750063001973</v>
       </c>
       <c r="F17" t="n">
-        <v>665.4523555908132</v>
+        <v>665.4523555908136</v>
       </c>
       <c r="G17" t="n">
-        <v>332.0680911020244</v>
+        <v>332.0680911020246</v>
       </c>
       <c r="H17" t="n">
-        <v>99.76882539604392</v>
+        <v>99.76882539604399</v>
       </c>
       <c r="I17" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J17" t="n">
         <v>281.4279914453035</v>
       </c>
       <c r="K17" t="n">
-        <v>582.5064954061985</v>
+        <v>714.8492924515756</v>
       </c>
       <c r="L17" t="n">
-        <v>1172.480572579799</v>
+        <v>1304.823369625176</v>
       </c>
       <c r="M17" t="n">
-        <v>1845.5469547431</v>
+        <v>1635.355113989795</v>
       </c>
       <c r="N17" t="n">
-        <v>2514.872257093228</v>
+        <v>2304.680416339922</v>
       </c>
       <c r="O17" t="n">
-        <v>3101.709522440786</v>
+        <v>2891.51768168748</v>
       </c>
       <c r="P17" t="n">
-        <v>3564.887168547417</v>
+        <v>3354.695327794112</v>
       </c>
       <c r="Q17" t="n">
         <v>3625.300690751712</v>
       </c>
       <c r="R17" t="n">
-        <v>3640.092784232366</v>
+        <v>3640.092784232367</v>
       </c>
       <c r="S17" t="n">
         <v>3572.815998355451</v>
@@ -5552,10 +5552,10 @@
         <v>3024.722281455164</v>
       </c>
       <c r="W17" t="n">
-        <v>2755.416880265273</v>
+        <v>2755.416880265274</v>
       </c>
       <c r="X17" t="n">
-        <v>2465.414376084417</v>
+        <v>2465.414376084418</v>
       </c>
       <c r="Y17" t="n">
         <v>2158.73829818883</v>
@@ -5580,31 +5580,31 @@
         <v>497.802523258054</v>
       </c>
       <c r="F18" t="n">
-        <v>351.2679652849389</v>
+        <v>351.267965284939</v>
       </c>
       <c r="G18" t="n">
-        <v>213.9551197864199</v>
+        <v>213.95511978642</v>
       </c>
       <c r="H18" t="n">
-        <v>114.2806849893582</v>
+        <v>114.2806849893583</v>
       </c>
       <c r="I18" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J18" t="n">
         <v>203.3647732285796</v>
       </c>
       <c r="K18" t="n">
-        <v>291.3178535390574</v>
+        <v>553.1384381815101</v>
       </c>
       <c r="L18" t="n">
-        <v>823.0361071063387</v>
+        <v>1084.856691748791</v>
       </c>
       <c r="M18" t="n">
-        <v>1495.505451129875</v>
+        <v>1296.278022659828</v>
       </c>
       <c r="N18" t="n">
-        <v>1726.931120482071</v>
+        <v>1527.703692012024</v>
       </c>
       <c r="O18" t="n">
         <v>1943.631306901584</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.4810704123951</v>
+        <v>545.4810704123953</v>
       </c>
       <c r="C19" t="n">
-        <v>460.008141564712</v>
+        <v>460.0081415647122</v>
       </c>
       <c r="D19" t="n">
-        <v>393.3547562326001</v>
+        <v>393.3547562326002</v>
       </c>
       <c r="E19" t="n">
-        <v>328.9049167304308</v>
+        <v>328.9049167304309</v>
       </c>
       <c r="F19" t="n">
         <v>265.4782233127443</v>
       </c>
       <c r="G19" t="n">
-        <v>180.4424061860752</v>
+        <v>180.4424061860751</v>
       </c>
       <c r="H19" t="n">
-        <v>110.6092242040071</v>
+        <v>110.6092242040072</v>
       </c>
       <c r="I19" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J19" t="n">
-        <v>144.5532848555556</v>
+        <v>144.5532848555563</v>
       </c>
       <c r="K19" t="n">
-        <v>339.6757305672278</v>
+        <v>339.6757305672285</v>
       </c>
       <c r="L19" t="n">
-        <v>622.0152270419123</v>
+        <v>622.015227041913</v>
       </c>
       <c r="M19" t="n">
-        <v>925.6450045090477</v>
+        <v>925.6450045090482</v>
       </c>
       <c r="N19" t="n">
-        <v>1229.434837632585</v>
+        <v>1229.434837632586</v>
       </c>
       <c r="O19" t="n">
         <v>1500.26226137765</v>
@@ -5701,7 +5701,7 @@
         <v>1650.085551459814</v>
       </c>
       <c r="T19" t="n">
-        <v>1508.380096897222</v>
+        <v>1508.380096897223</v>
       </c>
       <c r="U19" t="n">
         <v>1302.697053125911</v>
@@ -5710,13 +5710,13 @@
         <v>1131.475819000248</v>
       </c>
       <c r="W19" t="n">
-        <v>925.5219030435107</v>
+        <v>925.5219030435111</v>
       </c>
       <c r="X19" t="n">
-        <v>780.9956062257172</v>
+        <v>780.9956062257176</v>
       </c>
       <c r="Y19" t="n">
-        <v>643.6662811624109</v>
+        <v>643.6662811624112</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>332.0680911020245</v>
       </c>
       <c r="H20" t="n">
-        <v>99.76882539604392</v>
+        <v>99.76882539604399</v>
       </c>
       <c r="I20" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J20" t="n">
         <v>281.4279914453035</v>
@@ -5759,22 +5759,22 @@
         <v>1304.823369625176</v>
       </c>
       <c r="M20" t="n">
-        <v>1977.889751788477</v>
+        <v>1650.147207470449</v>
       </c>
       <c r="N20" t="n">
-        <v>2647.215054138605</v>
+        <v>2319.472509820577</v>
       </c>
       <c r="O20" t="n">
-        <v>2891.51768168748</v>
+        <v>2906.309775168135</v>
       </c>
       <c r="P20" t="n">
-        <v>3354.695327794111</v>
+        <v>3369.487421274766</v>
       </c>
       <c r="Q20" t="n">
-        <v>3625.300690751712</v>
+        <v>3640.092784232367</v>
       </c>
       <c r="R20" t="n">
-        <v>3640.092784232366</v>
+        <v>3640.092784232367</v>
       </c>
       <c r="S20" t="n">
         <v>3572.815998355451</v>
@@ -5786,7 +5786,7 @@
         <v>3272.321914718511</v>
       </c>
       <c r="V20" t="n">
-        <v>3024.722281455164</v>
+        <v>3024.722281455165</v>
       </c>
       <c r="W20" t="n">
         <v>2755.416880265274</v>
@@ -5817,28 +5817,28 @@
         <v>497.802523258054</v>
       </c>
       <c r="F21" t="n">
-        <v>351.2679652849389</v>
+        <v>351.267965284939</v>
       </c>
       <c r="G21" t="n">
-        <v>213.9551197864199</v>
+        <v>213.95511978642</v>
       </c>
       <c r="H21" t="n">
-        <v>114.2806849893582</v>
+        <v>114.2806849893583</v>
       </c>
       <c r="I21" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J21" t="n">
-        <v>78.53464824157486</v>
+        <v>203.3647732285796</v>
       </c>
       <c r="K21" t="n">
-        <v>428.3083131945054</v>
+        <v>318.5285603744085</v>
       </c>
       <c r="L21" t="n">
-        <v>836.7458764540714</v>
+        <v>850.2468139416898</v>
       </c>
       <c r="M21" t="n">
-        <v>1048.167207365108</v>
+        <v>1522.716157965227</v>
       </c>
       <c r="N21" t="n">
         <v>1754.141827317422</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.4810704123948</v>
+        <v>545.4810704123951</v>
       </c>
       <c r="C22" t="n">
-        <v>460.0081415647118</v>
+        <v>460.0081415647119</v>
       </c>
       <c r="D22" t="n">
-        <v>393.3547562325999</v>
+        <v>393.3547562326</v>
       </c>
       <c r="E22" t="n">
-        <v>328.9049167304306</v>
+        <v>328.9049167304307</v>
       </c>
       <c r="F22" t="n">
         <v>265.4782233127441</v>
       </c>
       <c r="G22" t="n">
-        <v>180.442406186075</v>
+        <v>180.4424061860749</v>
       </c>
       <c r="H22" t="n">
-        <v>110.6092242040071</v>
+        <v>110.609224204007</v>
       </c>
       <c r="I22" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J22" t="n">
-        <v>144.5532848555554</v>
+        <v>144.5532848555556</v>
       </c>
       <c r="K22" t="n">
-        <v>339.6757305672276</v>
+        <v>339.6757305672277</v>
       </c>
       <c r="L22" t="n">
-        <v>622.0152270419121</v>
+        <v>622.0152270419122</v>
       </c>
       <c r="M22" t="n">
-        <v>925.6450045090476</v>
+        <v>925.6450045090477</v>
       </c>
       <c r="N22" t="n">
         <v>1229.434837632585</v>
@@ -5941,19 +5941,19 @@
         <v>1508.380096897222</v>
       </c>
       <c r="U22" t="n">
-        <v>1302.69705312591</v>
+        <v>1302.697053125911</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.475819000247</v>
+        <v>1131.475819000248</v>
       </c>
       <c r="W22" t="n">
-        <v>925.5219030435105</v>
+        <v>925.5219030435109</v>
       </c>
       <c r="X22" t="n">
-        <v>780.995606225717</v>
+        <v>780.9956062257173</v>
       </c>
       <c r="Y22" t="n">
-        <v>643.6662811624107</v>
+        <v>643.666281162411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1855.601712204932</v>
+        <v>1855.601712204933</v>
       </c>
       <c r="C23" t="n">
-        <v>1570.102449344744</v>
+        <v>1570.102449344745</v>
       </c>
       <c r="D23" t="n">
-        <v>1295.300004818217</v>
+        <v>1295.300004818218</v>
       </c>
       <c r="E23" t="n">
-        <v>992.9750063001968</v>
+        <v>992.9750063001977</v>
       </c>
       <c r="F23" t="n">
-        <v>665.4523555908129</v>
+        <v>665.452355590814</v>
       </c>
       <c r="G23" t="n">
-        <v>332.068091102024</v>
+        <v>332.0680911020249</v>
       </c>
       <c r="H23" t="n">
-        <v>99.76882539604392</v>
+        <v>99.76882539604399</v>
       </c>
       <c r="I23" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J23" t="n">
-        <v>281.4279914453035</v>
+        <v>163.8772878805812</v>
       </c>
       <c r="K23" t="n">
-        <v>714.8492924515756</v>
+        <v>597.2985888868533</v>
       </c>
       <c r="L23" t="n">
-        <v>1304.823369625176</v>
+        <v>1187.272666060454</v>
       </c>
       <c r="M23" t="n">
-        <v>1977.889751788477</v>
+        <v>1860.339048223755</v>
       </c>
       <c r="N23" t="n">
-        <v>2647.215054138605</v>
+        <v>2529.664350573883</v>
       </c>
       <c r="O23" t="n">
-        <v>3234.052319486163</v>
+        <v>3116.501615921441</v>
       </c>
       <c r="P23" t="n">
-        <v>3579.679262028071</v>
+        <v>3579.679262028072</v>
       </c>
       <c r="Q23" t="n">
-        <v>3640.092784232366</v>
+        <v>3640.092784232367</v>
       </c>
       <c r="R23" t="n">
-        <v>3640.092784232366</v>
+        <v>3640.092784232367</v>
       </c>
       <c r="S23" t="n">
         <v>3572.815998355451</v>
       </c>
       <c r="T23" t="n">
-        <v>3442.531142837571</v>
+        <v>3442.531142837572</v>
       </c>
       <c r="U23" t="n">
-        <v>3272.32191471851</v>
+        <v>3272.321914718512</v>
       </c>
       <c r="V23" t="n">
-        <v>3024.722281455164</v>
+        <v>3024.722281455166</v>
       </c>
       <c r="W23" t="n">
-        <v>2755.416880265273</v>
+        <v>2755.416880265275</v>
       </c>
       <c r="X23" t="n">
-        <v>2465.414376084417</v>
+        <v>2465.414376084419</v>
       </c>
       <c r="Y23" t="n">
-        <v>2158.73829818883</v>
+        <v>2158.738298188831</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>497.802523258054</v>
       </c>
       <c r="F24" t="n">
-        <v>351.2679652849389</v>
+        <v>351.267965284939</v>
       </c>
       <c r="G24" t="n">
-        <v>213.9551197864199</v>
+        <v>213.95511978642</v>
       </c>
       <c r="H24" t="n">
-        <v>114.2806849893582</v>
+        <v>114.2806849893583</v>
       </c>
       <c r="I24" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J24" t="n">
-        <v>78.53464824157486</v>
+        <v>203.3647732285796</v>
       </c>
       <c r="K24" t="n">
-        <v>166.4877285520526</v>
+        <v>553.1384381815101</v>
       </c>
       <c r="L24" t="n">
-        <v>698.2059821193338</v>
+        <v>1084.856691748791</v>
       </c>
       <c r="M24" t="n">
-        <v>1370.675326142871</v>
+        <v>1522.716157965227</v>
       </c>
       <c r="N24" t="n">
-        <v>2076.649946095184</v>
+        <v>1754.141827317422</v>
       </c>
       <c r="O24" t="n">
-        <v>2266.139425679346</v>
+        <v>1943.631306901584</v>
       </c>
       <c r="P24" t="n">
-        <v>2398.888372489975</v>
+        <v>2391.65839466575</v>
       </c>
       <c r="Q24" t="n">
         <v>2638.454868513485</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.4810704123948</v>
+        <v>545.4810704123953</v>
       </c>
       <c r="C25" t="n">
-        <v>460.0081415647118</v>
+        <v>460.0081415647122</v>
       </c>
       <c r="D25" t="n">
-        <v>393.3547562325999</v>
+        <v>393.3547562326002</v>
       </c>
       <c r="E25" t="n">
-        <v>328.9049167304306</v>
+        <v>328.9049167304309</v>
       </c>
       <c r="F25" t="n">
-        <v>265.4782233127441</v>
+        <v>265.4782233127443</v>
       </c>
       <c r="G25" t="n">
-        <v>180.442406186075</v>
+        <v>180.4424061860751</v>
       </c>
       <c r="H25" t="n">
-        <v>110.6092242040071</v>
+        <v>110.6092242040072</v>
       </c>
       <c r="I25" t="n">
-        <v>72.80185568464732</v>
+        <v>72.80185568464734</v>
       </c>
       <c r="J25" t="n">
-        <v>144.5532848555557</v>
+        <v>144.5532848555556</v>
       </c>
       <c r="K25" t="n">
-        <v>339.6757305672278</v>
+        <v>339.6757305672285</v>
       </c>
       <c r="L25" t="n">
-        <v>622.0152270419123</v>
+        <v>622.015227041913</v>
       </c>
       <c r="M25" t="n">
-        <v>925.6450045090476</v>
+        <v>925.6450045090482</v>
       </c>
       <c r="N25" t="n">
-        <v>1229.434837632585</v>
+        <v>1229.434837632586</v>
       </c>
       <c r="O25" t="n">
-        <v>1500.262261377649</v>
+        <v>1500.26226137765</v>
       </c>
       <c r="P25" t="n">
-        <v>1720.287532710091</v>
+        <v>1720.287532710092</v>
       </c>
       <c r="Q25" t="n">
-        <v>1814.353184111398</v>
+        <v>1814.353184111399</v>
       </c>
       <c r="R25" t="n">
-        <v>1772.1843787614</v>
+        <v>1772.184378761401</v>
       </c>
       <c r="S25" t="n">
         <v>1650.085551459814</v>
       </c>
       <c r="T25" t="n">
-        <v>1508.380096897222</v>
+        <v>1508.380096897223</v>
       </c>
       <c r="U25" t="n">
-        <v>1302.69705312591</v>
+        <v>1302.697053125911</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.475819000247</v>
+        <v>1131.475819000248</v>
       </c>
       <c r="W25" t="n">
-        <v>925.5219030435105</v>
+        <v>925.5219030435111</v>
       </c>
       <c r="X25" t="n">
-        <v>780.995606225717</v>
+        <v>780.9956062257176</v>
       </c>
       <c r="Y25" t="n">
-        <v>643.6662811624107</v>
+        <v>643.6662811624112</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1714.106807276435</v>
       </c>
       <c r="D26" t="n">
-        <v>1416.468720229996</v>
+        <v>1416.468720229997</v>
       </c>
       <c r="E26" t="n">
-        <v>1091.308079192063</v>
+        <v>1091.308079192064</v>
       </c>
       <c r="F26" t="n">
-        <v>740.9497859627677</v>
+        <v>740.9497859627679</v>
       </c>
       <c r="G26" t="n">
         <v>384.7298789540669</v>
@@ -6224,10 +6224,10 @@
         <v>79.79235849686536</v>
       </c>
       <c r="J26" t="n">
-        <v>288.4184942575212</v>
+        <v>288.4184942575215</v>
       </c>
       <c r="K26" t="n">
-        <v>721.8397952637938</v>
+        <v>721.8397952637936</v>
       </c>
       <c r="L26" t="n">
         <v>1311.813872437394</v>
@@ -6242,7 +6242,7 @@
         <v>3241.042822298381</v>
       </c>
       <c r="P26" t="n">
-        <v>3704.220468405013</v>
+        <v>3704.220468405012</v>
       </c>
       <c r="Q26" t="n">
         <v>3974.825831362613</v>
@@ -6257,19 +6257,19 @@
         <v>3746.384998408649</v>
       </c>
       <c r="U26" t="n">
-        <v>3553.340127769675</v>
+        <v>3553.340127769676</v>
       </c>
       <c r="V26" t="n">
-        <v>3282.904851986416</v>
+        <v>3282.904851986417</v>
       </c>
       <c r="W26" t="n">
-        <v>2990.763808276613</v>
+        <v>2990.763808276614</v>
       </c>
       <c r="X26" t="n">
-        <v>2677.925661575845</v>
+        <v>2677.925661575846</v>
       </c>
       <c r="Y26" t="n">
-        <v>2348.413941160345</v>
+        <v>2348.413941160346</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>79.79235849686536</v>
       </c>
       <c r="J27" t="n">
-        <v>85.5251510537929</v>
+        <v>210.3552760407977</v>
       </c>
       <c r="K27" t="n">
-        <v>173.4782313642706</v>
+        <v>560.1289409937282</v>
       </c>
       <c r="L27" t="n">
-        <v>705.1964849315519</v>
+        <v>1091.847194561009</v>
       </c>
       <c r="M27" t="n">
-        <v>1347.759479551973</v>
+        <v>1303.268525472046</v>
       </c>
       <c r="N27" t="n">
-        <v>1579.185148904168</v>
+        <v>1534.694194824242</v>
       </c>
       <c r="O27" t="n">
-        <v>2158.598324572293</v>
+        <v>1950.621809713802</v>
       </c>
       <c r="P27" t="n">
-        <v>2606.625412336459</v>
+        <v>2398.648897477968</v>
       </c>
       <c r="Q27" t="n">
         <v>2645.445371325703</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>511.3436749944228</v>
+        <v>288.921937945204</v>
       </c>
       <c r="C28" t="n">
-        <v>511.3436749944228</v>
+        <v>180.6133665776087</v>
       </c>
       <c r="D28" t="n">
-        <v>421.854647142399</v>
+        <v>180.6133665776087</v>
       </c>
       <c r="E28" t="n">
-        <v>334.5691651203175</v>
+        <v>93.32788455552721</v>
       </c>
       <c r="F28" t="n">
-        <v>248.3068291827188</v>
+        <v>93.32788455552721</v>
       </c>
       <c r="G28" t="n">
-        <v>140.4353695361374</v>
+        <v>93.32788455552721</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4353695361374</v>
+        <v>79.79235849686536</v>
       </c>
       <c r="I28" t="n">
         <v>79.79235849686536</v>
       </c>
       <c r="J28" t="n">
-        <v>129.1625744340075</v>
+        <v>129.1625744340078</v>
       </c>
       <c r="K28" t="n">
-        <v>301.9038069119138</v>
+        <v>301.903806911914</v>
       </c>
       <c r="L28" t="n">
-        <v>561.8620901528324</v>
+        <v>561.8620901528326</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1106543862019</v>
+        <v>843.110654386202</v>
       </c>
       <c r="N28" t="n">
         <v>1124.519274275973</v>
@@ -6406,28 +6406,28 @@
         <v>1642.293981053489</v>
       </c>
       <c r="R28" t="n">
-        <v>1642.293981053489</v>
+        <v>1577.289533183579</v>
       </c>
       <c r="S28" t="n">
-        <v>1497.35951123199</v>
+        <v>1432.35506336208</v>
       </c>
       <c r="T28" t="n">
-        <v>1332.818414149487</v>
+        <v>1267.813966279576</v>
       </c>
       <c r="U28" t="n">
-        <v>1104.299727858263</v>
+        <v>1039.295279988352</v>
       </c>
       <c r="V28" t="n">
-        <v>910.2428512126877</v>
+        <v>845.2384033427771</v>
       </c>
       <c r="W28" t="n">
-        <v>681.4532927360387</v>
+        <v>616.4488448661282</v>
       </c>
       <c r="X28" t="n">
-        <v>514.091353398333</v>
+        <v>449.0869055284224</v>
       </c>
       <c r="Y28" t="n">
-        <v>511.3436749944228</v>
+        <v>288.921937945204</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1416.468720229997</v>
       </c>
       <c r="E29" t="n">
-        <v>1091.308079192064</v>
+        <v>1091.308079192065</v>
       </c>
       <c r="F29" t="n">
-        <v>740.9497859627681</v>
+        <v>740.9497859627686</v>
       </c>
       <c r="G29" t="n">
-        <v>384.729878954067</v>
+        <v>384.7298789540673</v>
       </c>
       <c r="H29" t="n">
-        <v>129.5949707281742</v>
+        <v>129.5949707281745</v>
       </c>
       <c r="I29" t="n">
         <v>79.79235849686536</v>
@@ -6464,10 +6464,10 @@
         <v>288.4184942575216</v>
       </c>
       <c r="K29" t="n">
-        <v>721.8397952637938</v>
+        <v>721.8397952637937</v>
       </c>
       <c r="L29" t="n">
-        <v>1311.813872437395</v>
+        <v>1311.813872437394</v>
       </c>
       <c r="M29" t="n">
         <v>1984.880254600695</v>
@@ -6491,13 +6491,13 @@
         <v>3899.50549644644</v>
       </c>
       <c r="T29" t="n">
-        <v>3746.384998408648</v>
+        <v>3746.384998408649</v>
       </c>
       <c r="U29" t="n">
-        <v>3553.340127769677</v>
+        <v>3553.340127769676</v>
       </c>
       <c r="V29" t="n">
-        <v>3282.904851986418</v>
+        <v>3282.904851986417</v>
       </c>
       <c r="W29" t="n">
         <v>2990.763808276615</v>
@@ -6540,25 +6540,25 @@
         <v>79.79235849686536</v>
       </c>
       <c r="J30" t="n">
-        <v>85.5251510537929</v>
+        <v>210.3552760407977</v>
       </c>
       <c r="K30" t="n">
-        <v>173.4782313642706</v>
+        <v>560.1289409937282</v>
       </c>
       <c r="L30" t="n">
-        <v>338.0645430811273</v>
+        <v>1091.847194561009</v>
       </c>
       <c r="M30" t="n">
-        <v>1010.533887104664</v>
+        <v>1303.268525472046</v>
       </c>
       <c r="N30" t="n">
-        <v>1716.508507056977</v>
+        <v>1534.694194824242</v>
       </c>
       <c r="O30" t="n">
-        <v>2295.921682725102</v>
+        <v>1950.621809713802</v>
       </c>
       <c r="P30" t="n">
-        <v>2428.67062953573</v>
+        <v>2398.648897477968</v>
       </c>
       <c r="Q30" t="n">
         <v>2645.445371325703</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>478.1302418650467</v>
+        <v>706.1662100559275</v>
       </c>
       <c r="C31" t="n">
-        <v>369.8216704974514</v>
+        <v>597.8576386883323</v>
       </c>
       <c r="D31" t="n">
-        <v>280.3326426454269</v>
+        <v>508.3686108363082</v>
       </c>
       <c r="E31" t="n">
-        <v>280.3326426454269</v>
+        <v>421.0831288142267</v>
       </c>
       <c r="F31" t="n">
-        <v>280.3326426454269</v>
+        <v>334.8207928766279</v>
       </c>
       <c r="G31" t="n">
-        <v>172.4611829988455</v>
+        <v>226.9493332300466</v>
       </c>
       <c r="H31" t="n">
-        <v>79.79235849686536</v>
+        <v>134.2805087280665</v>
       </c>
       <c r="I31" t="n">
         <v>79.79235849686536</v>
       </c>
       <c r="J31" t="n">
-        <v>129.1625744340077</v>
+        <v>129.1625744340076</v>
       </c>
       <c r="K31" t="n">
-        <v>301.9038069119138</v>
+        <v>301.9038069119139</v>
       </c>
       <c r="L31" t="n">
         <v>561.8620901528324</v>
@@ -6643,28 +6643,28 @@
         <v>1642.293981053489</v>
       </c>
       <c r="R31" t="n">
-        <v>1642.293981053489</v>
+        <v>1577.289533183579</v>
       </c>
       <c r="S31" t="n">
-        <v>1497.35951123199</v>
+        <v>1577.289533183579</v>
       </c>
       <c r="T31" t="n">
-        <v>1332.818414149486</v>
+        <v>1577.289533183579</v>
       </c>
       <c r="U31" t="n">
-        <v>1332.818414149486</v>
+        <v>1348.770846892355</v>
       </c>
       <c r="V31" t="n">
-        <v>1138.76153750391</v>
+        <v>1154.71397024678</v>
       </c>
       <c r="W31" t="n">
-        <v>926.6780020558992</v>
+        <v>1154.71397024678</v>
       </c>
       <c r="X31" t="n">
-        <v>759.3160627181934</v>
+        <v>987.3520309090743</v>
       </c>
       <c r="Y31" t="n">
-        <v>599.1510951349749</v>
+        <v>827.1870633258557</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1976.989394594846</v>
       </c>
       <c r="C32" t="n">
-        <v>1608.026877654434</v>
+        <v>1691.490131734658</v>
       </c>
       <c r="D32" t="n">
-        <v>1333.224433127908</v>
+        <v>1416.687687208132</v>
       </c>
       <c r="E32" t="n">
-        <v>1030.899434609888</v>
+        <v>1114.362688690111</v>
       </c>
       <c r="F32" t="n">
-        <v>703.3767839005038</v>
+        <v>703.3767839005036</v>
       </c>
       <c r="G32" t="n">
-        <v>369.992519411715</v>
+        <v>337.8343749130317</v>
       </c>
       <c r="H32" t="n">
         <v>105.5351092070511</v>
@@ -6707,13 +6707,13 @@
         <v>1310.589653436183</v>
       </c>
       <c r="M32" t="n">
-        <v>1983.656035599484</v>
+        <v>1923.669304540155</v>
       </c>
       <c r="N32" t="n">
-        <v>2652.981337949612</v>
+        <v>2592.994606890283</v>
       </c>
       <c r="O32" t="n">
-        <v>3239.81860329717</v>
+        <v>3179.831872237841</v>
       </c>
       <c r="P32" t="n">
         <v>3643.009518344472</v>
@@ -6728,7 +6728,7 @@
         <v>3861.130188905812</v>
       </c>
       <c r="T32" t="n">
-        <v>3730.845333387933</v>
+        <v>3647.382079307709</v>
       </c>
       <c r="U32" t="n">
         <v>3477.172851188649</v>
@@ -6777,22 +6777,22 @@
         <v>78.56813949565455</v>
       </c>
       <c r="J33" t="n">
-        <v>84.30093205258208</v>
+        <v>209.1310570395868</v>
       </c>
       <c r="K33" t="n">
-        <v>172.2540123630598</v>
+        <v>297.0841373500646</v>
       </c>
       <c r="L33" t="n">
-        <v>336.8403240799165</v>
+        <v>461.6704490669213</v>
       </c>
       <c r="M33" t="n">
-        <v>1009.309668103453</v>
+        <v>1134.139793090458</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.262555998004</v>
+        <v>1840.114413042771</v>
       </c>
       <c r="O33" t="n">
-        <v>2264.675731666129</v>
+        <v>2029.603892626934</v>
       </c>
       <c r="P33" t="n">
         <v>2397.424678476757</v>
@@ -6835,22 +6835,22 @@
         <v>551.247354223402</v>
       </c>
       <c r="C34" t="n">
-        <v>465.7744253757189</v>
+        <v>465.774425375719</v>
       </c>
       <c r="D34" t="n">
-        <v>399.121040043607</v>
+        <v>399.1210400436071</v>
       </c>
       <c r="E34" t="n">
         <v>334.6712005414378</v>
       </c>
       <c r="F34" t="n">
-        <v>271.2445071237512</v>
+        <v>271.2445071237513</v>
       </c>
       <c r="G34" t="n">
         <v>186.2086899970822</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3755080150143</v>
+        <v>116.3755080150144</v>
       </c>
       <c r="I34" t="n">
         <v>78.56813949565455</v>
@@ -6895,13 +6895,13 @@
         <v>1137.242102811255</v>
       </c>
       <c r="W34" t="n">
-        <v>931.2881868545185</v>
+        <v>931.2881868545186</v>
       </c>
       <c r="X34" t="n">
-        <v>786.7618900367249</v>
+        <v>786.7618900367252</v>
       </c>
       <c r="Y34" t="n">
-        <v>649.4325649734185</v>
+        <v>649.4325649734178</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1570.102449344744</v>
       </c>
       <c r="D35" t="n">
-        <v>1295.300004818218</v>
+        <v>1295.300004818217</v>
       </c>
       <c r="E35" t="n">
-        <v>992.975006300197</v>
+        <v>992.9750063001968</v>
       </c>
       <c r="F35" t="n">
-        <v>665.4523555908133</v>
+        <v>665.4523555908131</v>
       </c>
       <c r="G35" t="n">
-        <v>332.0680911020245</v>
+        <v>332.0680911020244</v>
       </c>
       <c r="H35" t="n">
-        <v>99.76882539604392</v>
+        <v>99.76882539604394</v>
       </c>
       <c r="I35" t="n">
         <v>72.80185568464732</v>
       </c>
       <c r="J35" t="n">
-        <v>281.4279914453034</v>
+        <v>281.4279914453035</v>
       </c>
       <c r="K35" t="n">
-        <v>714.8492924515754</v>
+        <v>714.8492924515756</v>
       </c>
       <c r="L35" t="n">
         <v>1304.823369625176</v>
       </c>
       <c r="M35" t="n">
-        <v>1977.889751788477</v>
+        <v>1635.355113989794</v>
       </c>
       <c r="N35" t="n">
-        <v>2647.215054138605</v>
+        <v>2304.680416339922</v>
       </c>
       <c r="O35" t="n">
         <v>2891.51768168748</v>
@@ -6956,28 +6956,28 @@
         <v>3354.695327794111</v>
       </c>
       <c r="Q35" t="n">
-        <v>3625.300690751711</v>
+        <v>3625.300690751712</v>
       </c>
       <c r="R35" t="n">
         <v>3640.092784232366</v>
       </c>
       <c r="S35" t="n">
-        <v>3572.81599835545</v>
+        <v>3572.815998355451</v>
       </c>
       <c r="T35" t="n">
-        <v>3442.531142837571</v>
+        <v>3442.531142837572</v>
       </c>
       <c r="U35" t="n">
-        <v>3272.321914718511</v>
+        <v>3272.32191471851</v>
       </c>
       <c r="V35" t="n">
-        <v>3024.722281455164</v>
+        <v>3024.722281455163</v>
       </c>
       <c r="W35" t="n">
-        <v>2755.416880265274</v>
+        <v>2755.416880265273</v>
       </c>
       <c r="X35" t="n">
-        <v>2465.414376084418</v>
+        <v>2465.414376084417</v>
       </c>
       <c r="Y35" t="n">
         <v>2158.73829818883</v>
@@ -7014,25 +7014,25 @@
         <v>72.80185568464732</v>
       </c>
       <c r="J36" t="n">
-        <v>78.53464824157483</v>
+        <v>203.3647732285796</v>
       </c>
       <c r="K36" t="n">
-        <v>419.0880664832056</v>
+        <v>553.1384381815101</v>
       </c>
       <c r="L36" t="n">
-        <v>583.6743782000623</v>
+        <v>1084.856691748791</v>
       </c>
       <c r="M36" t="n">
-        <v>1256.143722223599</v>
+        <v>1296.278022659828</v>
       </c>
       <c r="N36" t="n">
-        <v>1962.118342175912</v>
+        <v>1527.703692012024</v>
       </c>
       <c r="O36" t="n">
-        <v>2151.607821760075</v>
+        <v>1943.631306901584</v>
       </c>
       <c r="P36" t="n">
-        <v>2599.634909524241</v>
+        <v>2391.65839466575</v>
       </c>
       <c r="Q36" t="n">
         <v>2638.454868513485</v>
@@ -7072,28 +7072,28 @@
         <v>545.4810704123947</v>
       </c>
       <c r="C37" t="n">
-        <v>460.0081415647117</v>
+        <v>460.0081415647116</v>
       </c>
       <c r="D37" t="n">
-        <v>393.3547562325998</v>
+        <v>393.3547562325997</v>
       </c>
       <c r="E37" t="n">
-        <v>328.9049167304306</v>
+        <v>328.9049167304304</v>
       </c>
       <c r="F37" t="n">
-        <v>265.478223312744</v>
+        <v>265.4782233127439</v>
       </c>
       <c r="G37" t="n">
-        <v>180.4424061860749</v>
+        <v>180.4424061860748</v>
       </c>
       <c r="H37" t="n">
-        <v>110.6092242040071</v>
+        <v>110.6092242040068</v>
       </c>
       <c r="I37" t="n">
         <v>72.80185568464732</v>
       </c>
       <c r="J37" t="n">
-        <v>144.5532848555556</v>
+        <v>144.5532848555557</v>
       </c>
       <c r="K37" t="n">
         <v>339.6757305672278</v>
@@ -7102,7 +7102,7 @@
         <v>622.0152270419123</v>
       </c>
       <c r="M37" t="n">
-        <v>925.6450045090478</v>
+        <v>925.6450045090476</v>
       </c>
       <c r="N37" t="n">
         <v>1229.434837632585</v>
@@ -7163,10 +7163,10 @@
         <v>665.4523555908138</v>
       </c>
       <c r="G38" t="n">
-        <v>332.0680911020249</v>
+        <v>332.0680911020245</v>
       </c>
       <c r="H38" t="n">
-        <v>99.76882539604392</v>
+        <v>99.76882539604394</v>
       </c>
       <c r="I38" t="n">
         <v>72.80185568464732</v>
@@ -7190,10 +7190,10 @@
         <v>3234.052319486163</v>
       </c>
       <c r="P38" t="n">
-        <v>3579.679262028071</v>
+        <v>3378.649244503026</v>
       </c>
       <c r="Q38" t="n">
-        <v>3640.092784232366</v>
+        <v>3625.300690751712</v>
       </c>
       <c r="R38" t="n">
         <v>3640.092784232366</v>
@@ -7202,7 +7202,7 @@
         <v>3572.815998355451</v>
       </c>
       <c r="T38" t="n">
-        <v>3442.531142837571</v>
+        <v>3442.531142837572</v>
       </c>
       <c r="U38" t="n">
         <v>3272.321914718511</v>
@@ -7251,19 +7251,19 @@
         <v>72.80185568464732</v>
       </c>
       <c r="J39" t="n">
-        <v>78.53464824157486</v>
+        <v>203.3647732285796</v>
       </c>
       <c r="K39" t="n">
-        <v>318.5285603744085</v>
+        <v>553.1384381815101</v>
       </c>
       <c r="L39" t="n">
-        <v>850.2468139416898</v>
+        <v>1084.856691748791</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.716157965227</v>
+        <v>1296.278022659828</v>
       </c>
       <c r="N39" t="n">
-        <v>1754.141827317422</v>
+        <v>1527.703692012024</v>
       </c>
       <c r="O39" t="n">
         <v>1943.631306901584</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>545.4810704123953</v>
+        <v>545.481070412395</v>
       </c>
       <c r="C40" t="n">
-        <v>460.0081415647122</v>
+        <v>460.0081415647118</v>
       </c>
       <c r="D40" t="n">
-        <v>393.3547562326003</v>
+        <v>393.3547562325999</v>
       </c>
       <c r="E40" t="n">
-        <v>328.9049167304311</v>
+        <v>328.9049167304307</v>
       </c>
       <c r="F40" t="n">
-        <v>265.4782233127445</v>
+        <v>265.4782233127441</v>
       </c>
       <c r="G40" t="n">
-        <v>180.4424061860755</v>
+        <v>180.442406186075</v>
       </c>
       <c r="H40" t="n">
-        <v>110.6092242040076</v>
+        <v>110.6092242040071</v>
       </c>
       <c r="I40" t="n">
         <v>72.80185568464732</v>
@@ -7333,13 +7333,13 @@
         <v>144.5532848555557</v>
       </c>
       <c r="K40" t="n">
-        <v>339.6757305672279</v>
+        <v>339.6757305672278</v>
       </c>
       <c r="L40" t="n">
-        <v>622.0152270419125</v>
+        <v>622.0152270419123</v>
       </c>
       <c r="M40" t="n">
-        <v>925.6450045090478</v>
+        <v>925.6450045090477</v>
       </c>
       <c r="N40" t="n">
         <v>1229.434837632585</v>
@@ -7351,7 +7351,7 @@
         <v>1720.287532710092</v>
       </c>
       <c r="Q40" t="n">
-        <v>1814.353184111399</v>
+        <v>1814.353184111398</v>
       </c>
       <c r="R40" t="n">
         <v>1772.1843787614</v>
@@ -7363,19 +7363,19 @@
         <v>1508.380096897222</v>
       </c>
       <c r="U40" t="n">
-        <v>1302.697053125911</v>
+        <v>1302.69705312591</v>
       </c>
       <c r="V40" t="n">
-        <v>1131.475819000248</v>
+        <v>1131.475819000247</v>
       </c>
       <c r="W40" t="n">
-        <v>925.521903043511</v>
+        <v>925.5219030435105</v>
       </c>
       <c r="X40" t="n">
-        <v>780.9956062257174</v>
+        <v>780.995606225717</v>
       </c>
       <c r="Y40" t="n">
-        <v>643.6662811624111</v>
+        <v>643.6662811624108</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1855.601712204931</v>
+        <v>1855.601712204932</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.102449344743</v>
+        <v>1570.102449344744</v>
       </c>
       <c r="D41" t="n">
-        <v>1295.300004818217</v>
+        <v>1295.300004818218</v>
       </c>
       <c r="E41" t="n">
-        <v>992.9750063001964</v>
+        <v>992.9750063001974</v>
       </c>
       <c r="F41" t="n">
-        <v>665.4523555908124</v>
+        <v>665.4523555908137</v>
       </c>
       <c r="G41" t="n">
-        <v>332.0680911020237</v>
+        <v>332.0680911020244</v>
       </c>
       <c r="H41" t="n">
-        <v>99.76882539604401</v>
+        <v>99.76882539604392</v>
       </c>
       <c r="I41" t="n">
-        <v>72.80185568464734</v>
+        <v>72.80185568464732</v>
       </c>
       <c r="J41" t="n">
         <v>281.4279914453035</v>
@@ -7421,25 +7421,25 @@
         <v>1977.889751788477</v>
       </c>
       <c r="N41" t="n">
-        <v>2304.680416339922</v>
+        <v>2647.215054138605</v>
       </c>
       <c r="O41" t="n">
-        <v>2891.51768168748</v>
+        <v>3234.052319486163</v>
       </c>
       <c r="P41" t="n">
-        <v>3354.695327794112</v>
+        <v>3378.649244503026</v>
       </c>
       <c r="Q41" t="n">
-        <v>3625.300690751712</v>
+        <v>3640.092784232366</v>
       </c>
       <c r="R41" t="n">
-        <v>3640.092784232367</v>
+        <v>3640.092784232366</v>
       </c>
       <c r="S41" t="n">
         <v>3572.815998355451</v>
       </c>
       <c r="T41" t="n">
-        <v>3442.531142837572</v>
+        <v>3442.531142837571</v>
       </c>
       <c r="U41" t="n">
         <v>3272.321914718511</v>
@@ -7476,31 +7476,31 @@
         <v>497.802523258054</v>
       </c>
       <c r="F42" t="n">
-        <v>351.267965284939</v>
+        <v>351.2679652849389</v>
       </c>
       <c r="G42" t="n">
-        <v>213.95511978642</v>
+        <v>213.9551197864199</v>
       </c>
       <c r="H42" t="n">
-        <v>114.2806849893583</v>
+        <v>114.2806849893582</v>
       </c>
       <c r="I42" t="n">
-        <v>72.80185568464734</v>
+        <v>72.80185568464732</v>
       </c>
       <c r="J42" t="n">
         <v>203.3647732285796</v>
       </c>
       <c r="K42" t="n">
-        <v>291.3178535390574</v>
+        <v>553.1384381815101</v>
       </c>
       <c r="L42" t="n">
-        <v>823.0361071063387</v>
+        <v>1084.856691748791</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.457438017376</v>
+        <v>1296.278022659828</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.218131233459</v>
+        <v>1527.703692012024</v>
       </c>
       <c r="O42" t="n">
         <v>1943.631306901584</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>545.4810704123954</v>
+        <v>545.4810704123948</v>
       </c>
       <c r="C43" t="n">
-        <v>460.0081415647122</v>
+        <v>460.0081415647118</v>
       </c>
       <c r="D43" t="n">
-        <v>393.3547562326003</v>
+        <v>393.3547562325999</v>
       </c>
       <c r="E43" t="n">
-        <v>328.904916730431</v>
+        <v>328.9049167304306</v>
       </c>
       <c r="F43" t="n">
-        <v>265.4782233127444</v>
+        <v>265.4782233127441</v>
       </c>
       <c r="G43" t="n">
-        <v>180.4424061860752</v>
+        <v>180.442406186075</v>
       </c>
       <c r="H43" t="n">
-        <v>110.6092242040072</v>
+        <v>110.6092242040071</v>
       </c>
       <c r="I43" t="n">
-        <v>72.80185568464734</v>
+        <v>72.80185568464732</v>
       </c>
       <c r="J43" t="n">
-        <v>144.5532848555556</v>
+        <v>144.5532848555557</v>
       </c>
       <c r="K43" t="n">
-        <v>339.6757305672288</v>
+        <v>339.6757305672278</v>
       </c>
       <c r="L43" t="n">
-        <v>622.0152270419132</v>
+        <v>622.0152270419123</v>
       </c>
       <c r="M43" t="n">
-        <v>925.6450045090485</v>
+        <v>925.6450045090478</v>
       </c>
       <c r="N43" t="n">
-        <v>1229.434837632586</v>
+        <v>1229.434837632585</v>
       </c>
       <c r="O43" t="n">
         <v>1500.26226137765</v>
@@ -7588,31 +7588,31 @@
         <v>1720.287532710092</v>
       </c>
       <c r="Q43" t="n">
-        <v>1814.353184111399</v>
+        <v>1814.353184111398</v>
       </c>
       <c r="R43" t="n">
-        <v>1772.184378761401</v>
+        <v>1772.1843787614</v>
       </c>
       <c r="S43" t="n">
-        <v>1650.085551459815</v>
+        <v>1650.085551459814</v>
       </c>
       <c r="T43" t="n">
-        <v>1508.380096897223</v>
+        <v>1508.380096897222</v>
       </c>
       <c r="U43" t="n">
-        <v>1302.697053125911</v>
+        <v>1302.69705312591</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.475819000248</v>
+        <v>1131.475819000247</v>
       </c>
       <c r="W43" t="n">
-        <v>925.5219030435112</v>
+        <v>925.5219030435105</v>
       </c>
       <c r="X43" t="n">
-        <v>780.9956062257177</v>
+        <v>780.995606225717</v>
       </c>
       <c r="Y43" t="n">
-        <v>643.6662811624113</v>
+        <v>643.6662811624107</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>1855.601712204932</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.102449344744</v>
+        <v>1570.102449344743</v>
       </c>
       <c r="D44" t="n">
         <v>1295.300004818217</v>
       </c>
       <c r="E44" t="n">
-        <v>992.9750063001967</v>
+        <v>992.9750063001966</v>
       </c>
       <c r="F44" t="n">
         <v>665.4523555908129</v>
@@ -7640,55 +7640,55 @@
         <v>332.068091102024</v>
       </c>
       <c r="H44" t="n">
-        <v>99.76882539604399</v>
+        <v>99.76882539604392</v>
       </c>
       <c r="I44" t="n">
-        <v>72.80185568464734</v>
+        <v>72.80185568464732</v>
       </c>
       <c r="J44" t="n">
-        <v>281.4279914453035</v>
+        <v>114.0223424249504</v>
       </c>
       <c r="K44" t="n">
-        <v>714.8492924515756</v>
+        <v>547.4436434312225</v>
       </c>
       <c r="L44" t="n">
-        <v>962.2887318264933</v>
+        <v>1137.417720604823</v>
       </c>
       <c r="M44" t="n">
-        <v>1635.355113989794</v>
+        <v>1810.484102768124</v>
       </c>
       <c r="N44" t="n">
-        <v>2304.680416339922</v>
+        <v>2479.809405118252</v>
       </c>
       <c r="O44" t="n">
-        <v>2891.51768168748</v>
+        <v>3066.64667046581</v>
       </c>
       <c r="P44" t="n">
-        <v>3354.695327794111</v>
+        <v>3529.824316572441</v>
       </c>
       <c r="Q44" t="n">
-        <v>3625.300690751712</v>
+        <v>3640.092784232366</v>
       </c>
       <c r="R44" t="n">
-        <v>3640.092784232367</v>
+        <v>3640.092784232366</v>
       </c>
       <c r="S44" t="n">
         <v>3572.815998355451</v>
       </c>
       <c r="T44" t="n">
-        <v>3442.531142837572</v>
+        <v>3442.531142837571</v>
       </c>
       <c r="U44" t="n">
-        <v>3272.321914718511</v>
+        <v>3272.32191471851</v>
       </c>
       <c r="V44" t="n">
-        <v>3024.722281455164</v>
+        <v>3024.722281455163</v>
       </c>
       <c r="W44" t="n">
-        <v>2755.416880265274</v>
+        <v>2755.416880265273</v>
       </c>
       <c r="X44" t="n">
-        <v>2465.414376084418</v>
+        <v>2465.414376084417</v>
       </c>
       <c r="Y44" t="n">
         <v>2158.73829818883</v>
@@ -7722,25 +7722,25 @@
         <v>114.2806849893582</v>
       </c>
       <c r="I45" t="n">
-        <v>72.80185568464734</v>
+        <v>72.80185568464732</v>
       </c>
       <c r="J45" t="n">
-        <v>78.53464824157487</v>
+        <v>203.3647732285796</v>
       </c>
       <c r="K45" t="n">
-        <v>428.3083131945054</v>
+        <v>553.1384381815101</v>
       </c>
       <c r="L45" t="n">
-        <v>690.9760042951091</v>
+        <v>1084.856691748791</v>
       </c>
       <c r="M45" t="n">
-        <v>1363.445348318646</v>
+        <v>1522.716157965227</v>
       </c>
       <c r="N45" t="n">
-        <v>2069.419968270959</v>
+        <v>1754.141827317422</v>
       </c>
       <c r="O45" t="n">
-        <v>2258.909447855122</v>
+        <v>1943.631306901584</v>
       </c>
       <c r="P45" t="n">
         <v>2391.65839466575</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>545.4810704123943</v>
+        <v>545.4810704123951</v>
       </c>
       <c r="C46" t="n">
-        <v>460.0081415647111</v>
+        <v>460.008141564712</v>
       </c>
       <c r="D46" t="n">
-        <v>393.3547562325991</v>
+        <v>393.3547562326001</v>
       </c>
       <c r="E46" t="n">
-        <v>328.9049167304298</v>
+        <v>328.9049167304308</v>
       </c>
       <c r="F46" t="n">
-        <v>265.4782233127432</v>
+        <v>265.4782233127443</v>
       </c>
       <c r="G46" t="n">
-        <v>180.4424061860741</v>
+        <v>180.4424061860752</v>
       </c>
       <c r="H46" t="n">
-        <v>110.6092242040072</v>
+        <v>110.6092242040071</v>
       </c>
       <c r="I46" t="n">
-        <v>72.80185568464734</v>
+        <v>72.80185568464732</v>
       </c>
       <c r="J46" t="n">
         <v>144.5532848555556</v>
       </c>
       <c r="K46" t="n">
-        <v>339.6757305672279</v>
+        <v>339.6757305672278</v>
       </c>
       <c r="L46" t="n">
-        <v>622.0152270419125</v>
+        <v>622.0152270419123</v>
       </c>
       <c r="M46" t="n">
-        <v>925.6450045090477</v>
+        <v>925.6450045090478</v>
       </c>
       <c r="N46" t="n">
         <v>1229.434837632585</v>
       </c>
       <c r="O46" t="n">
-        <v>1500.262261377649</v>
+        <v>1500.26226137765</v>
       </c>
       <c r="P46" t="n">
-        <v>1720.287532710091</v>
+        <v>1720.287532710092</v>
       </c>
       <c r="Q46" t="n">
         <v>1814.353184111399</v>
       </c>
       <c r="R46" t="n">
-        <v>1772.1843787614</v>
+        <v>1772.184378761401</v>
       </c>
       <c r="S46" t="n">
         <v>1650.085551459814</v>
@@ -7837,19 +7837,19 @@
         <v>1508.380096897222</v>
       </c>
       <c r="U46" t="n">
-        <v>1302.69705312591</v>
+        <v>1302.697053125911</v>
       </c>
       <c r="V46" t="n">
-        <v>1131.475819000247</v>
+        <v>1131.475819000248</v>
       </c>
       <c r="W46" t="n">
-        <v>925.5219030435101</v>
+        <v>925.5219030435107</v>
       </c>
       <c r="X46" t="n">
-        <v>780.9956062257165</v>
+        <v>780.9956062257173</v>
       </c>
       <c r="Y46" t="n">
-        <v>643.6662811624102</v>
+        <v>643.6662811624109</v>
       </c>
     </row>
   </sheetData>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
         <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
         <v>244.715801111726</v>
@@ -8468,7 +8468,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>245.9174408455507</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O9" t="n">
-        <v>157.2806895347256</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
         <v>149.2771449294653</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,13 +8617,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>153.6102290378862</v>
+        <v>154.2285214627401</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.7592759669778</v>
+        <v>153.1409835421239</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>283.981621575322</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,16 +8702,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>218.8437213661035</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>50.77491130666473</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>13.84825186639677</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>44.94035765649122</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>71.66663091541722</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>49.74710619402978</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>50.77491130666473</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>120.2233601572774</v>
+        <v>228.7253891973718</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>190.4658195960365</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>103.5189498577996</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>27.48556245995044</v>
+        <v>228.7253891973717</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9407,13 +9407,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>118.4604584241171</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>34.80559762771185</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>50.77491130666473</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>27.48556245995063</v>
       </c>
       <c r="L21" t="n">
-        <v>246.3143954976862</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>50.35853076326339</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>203.0606237626716</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>228.7253891973718</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>202.7742798325921</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599052</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>435.4966300094785</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>228.7253891973717</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>228.7253891973717</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.7523058593217</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>388.9208758571468</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>261.2060505357967</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>449.0173924670262</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>237.4463020597931</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>103.5189498577992</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>34.8055976277119</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>255.1518564961142</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>228.7253891973717</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>203.0606237626711</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>188.1191151963541</v>
       </c>
       <c r="R38" t="n">
-        <v>50.77491130666473</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10899,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>153.5765978003595</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>228.7253891973717</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11069,19 +11069,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>91.35234077695122</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>203.0606237626712</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>50.77491130666473</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,10 +11148,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>99.32830693322049</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>228.7253891973717</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>71.66663091541704</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>50.35853076326217</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>50.77491130666473</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>99.0721003876231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>228.7253891973718</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>344.7192975263022</v>
       </c>
       <c r="C11" t="n">
-        <v>226.123954225125</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>228.4947343411133</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>326.5999456812348</v>
       </c>
       <c r="X11" t="n">
-        <v>347.0900776422908</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.6057980624496</v>
+        <v>144.6057980624497</v>
       </c>
       <c r="D13" t="n">
-        <v>125.9744499820341</v>
+        <v>125.9744499820342</v>
       </c>
       <c r="E13" t="n">
-        <v>123.7929396103909</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>122.780024986753</v>
       </c>
       <c r="G13" t="n">
-        <v>144.1730574586458</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>129.1224486654906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.41689333740963</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.7347157997416</v>
       </c>
       <c r="S13" t="n">
-        <v>180.8654375318139</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>200.2759985202093</v>
+        <v>200.2759985202094</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>8.855574751102068</v>
       </c>
       <c r="V13" t="n">
         <v>229.4966202876498</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>29.06556329068629</v>
+        <v>203.068632352859</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>195.9436303159166</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>360.0928186273024</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>342.6318687348294</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>189.1269842864847</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>188.9696054659439</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.119684720574089</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>347.0900776422908</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>363.5969156198753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.1909571457591</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>144.6057980624496</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>123.7929396103909</v>
+        <v>109.1787556345078</v>
       </c>
       <c r="F16" t="n">
         <v>122.780024986753</v>
@@ -23671,7 +23671,7 @@
         <v>129.1224486654906</v>
       </c>
       <c r="I16" t="n">
-        <v>97.4168933374096</v>
+        <v>97.41689333740963</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.7347157997416</v>
       </c>
       <c r="S16" t="n">
         <v>180.8654375318139</v>
       </c>
       <c r="T16" t="n">
-        <v>200.2759985202093</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>263.6138118368416</v>
+        <v>263.6138118368417</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>229.4966202876498</v>
       </c>
       <c r="W16" t="n">
-        <v>10.48802869900628</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>195.9436303159166</v>
       </c>
     </row>
     <row r="17">
@@ -24601,25 +24601,25 @@
         <v>119.8106447372288</v>
       </c>
       <c r="C28" t="n">
-        <v>107.2254856539193</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>88.59413757350384</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>85.39971257822273</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>106.7927450501155</v>
       </c>
       <c r="H28" t="n">
-        <v>91.74213625696031</v>
+        <v>78.34196545888507</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>60.0365809288793</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>64.35440339121128</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.8431162875151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>86.41262720186073</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>85.3997125782228</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>60.03658092887937</v>
+        <v>6.093312199990137</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>64.35440339121133</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>143.4851251232836</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>162.8956861116791</v>
       </c>
       <c r="U31" t="n">
-        <v>226.2334994283115</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>16.53896279835155</v>
+        <v>226.5016628918825</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>979296.393647289</v>
+        <v>979296.3936472887</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979296.3936472891</v>
+        <v>979296.393647289</v>
       </c>
     </row>
     <row r="7">
@@ -26317,28 +26317,28 @@
         <v>409638.1693585193</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>357546.460564952</v>
+        <v>357546.4605649521</v>
       </c>
       <c r="F2" t="n">
         <v>357546.4605649519</v>
       </c>
       <c r="G2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="H2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="I2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="J2" t="n">
         <v>404053.1754962199</v>
       </c>
       <c r="K2" t="n">
-        <v>404053.1754962198</v>
+        <v>404053.1754962199</v>
       </c>
       <c r="L2" t="n">
         <v>410520.8849321416</v>
@@ -26347,13 +26347,13 @@
         <v>410520.8849321416</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="O2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47990.0788025947</v>
+        <v>47990.07880259467</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>22889.77852567178</v>
+        <v>22889.77852567177</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66075.90767836524</v>
+        <v>66075.90767836515</v>
       </c>
       <c r="M3" t="n">
         <v>205005.6547652609</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>26.98955317204934</v>
+        <v>26.98955317213461</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,19 +26430,19 @@
         <v>108944.6240170215</v>
       </c>
       <c r="G4" t="n">
-        <v>169564.8351628469</v>
+        <v>169564.8351628468</v>
       </c>
       <c r="H4" t="n">
-        <v>169564.8351628469</v>
+        <v>169564.8351628468</v>
       </c>
       <c r="I4" t="n">
-        <v>169564.8351628469</v>
+        <v>169564.8351628468</v>
       </c>
       <c r="J4" t="n">
         <v>155022.8012846039</v>
       </c>
       <c r="K4" t="n">
-        <v>155022.8012846038</v>
+        <v>155022.8012846039</v>
       </c>
       <c r="L4" t="n">
         <v>163705.6645254283</v>
@@ -26457,7 +26457,7 @@
         <v>169564.8351628468</v>
       </c>
       <c r="P4" t="n">
-        <v>169564.8351628468</v>
+        <v>169564.8351628469</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>71460.4558392467</v>
       </c>
       <c r="G5" t="n">
-        <v>76503.55325781587</v>
+        <v>76503.55325781586</v>
       </c>
       <c r="H5" t="n">
-        <v>76503.55325781587</v>
+        <v>76503.55325781586</v>
       </c>
       <c r="I5" t="n">
-        <v>76503.55325781587</v>
+        <v>76503.55325781586</v>
       </c>
       <c r="J5" t="n">
         <v>79915.76346040514</v>
       </c>
       <c r="K5" t="n">
-        <v>79915.76346040513</v>
+        <v>79915.76346040514</v>
       </c>
       <c r="L5" t="n">
         <v>80885.92895418136</v>
       </c>
       <c r="M5" t="n">
-        <v>76503.55325781586</v>
+        <v>76503.55325781587</v>
       </c>
       <c r="N5" t="n">
-        <v>76503.55325781586</v>
+        <v>76503.55325781587</v>
       </c>
       <c r="O5" t="n">
         <v>76503.55325781586</v>
       </c>
       <c r="P5" t="n">
-        <v>76503.55325781587</v>
+        <v>76503.55325781586</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33386.45897786729</v>
+        <v>-33390.8725557354</v>
       </c>
       <c r="C6" t="n">
-        <v>-33386.45897786729</v>
+        <v>-33390.8725557354</v>
       </c>
       <c r="D6" t="n">
-        <v>-36913.69165282805</v>
+        <v>-36913.69165282817</v>
       </c>
       <c r="E6" t="n">
-        <v>-632451.3622655128</v>
+        <v>-632716.2343873486</v>
       </c>
       <c r="F6" t="n">
-        <v>177141.3807086836</v>
+        <v>176876.5085868478</v>
       </c>
       <c r="G6" t="n">
-        <v>116462.4177088842</v>
+        <v>116462.4177088844</v>
       </c>
       <c r="H6" t="n">
-        <v>164452.4965114789</v>
+        <v>164452.4965114791</v>
       </c>
       <c r="I6" t="n">
-        <v>164452.4965114789</v>
+        <v>164452.4965114791</v>
       </c>
       <c r="J6" t="n">
-        <v>146224.8322255391</v>
+        <v>146192.4936783595</v>
       </c>
       <c r="K6" t="n">
-        <v>169114.6107512108</v>
+        <v>169082.2722040313</v>
       </c>
       <c r="L6" t="n">
-        <v>99853.38377416674</v>
+        <v>99853.38377416685</v>
       </c>
       <c r="M6" t="n">
-        <v>-40553.15825378205</v>
+        <v>-40553.15825378209</v>
       </c>
       <c r="N6" t="n">
         <v>164452.4965114789</v>
       </c>
       <c r="O6" t="n">
-        <v>164425.506958307</v>
+        <v>164425.5069583069</v>
       </c>
       <c r="P6" t="n">
-        <v>164452.496511479</v>
+        <v>164452.4965114791</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="F2" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="G2" t="n">
+        <v>82.62862153942154</v>
+      </c>
+      <c r="H2" t="n">
+        <v>82.62862153942154</v>
+      </c>
+      <c r="I2" t="n">
+        <v>82.62862153942154</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60.02133544470851</v>
+      </c>
+      <c r="K2" t="n">
+        <v>60.02133544470851</v>
+      </c>
+      <c r="L2" t="n">
         <v>82.6286215394216</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>82.62862153942159</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82.62862153942159</v>
+      </c>
+      <c r="O2" t="n">
         <v>82.6286215394216</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>82.6286215394216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>60.0213354447085</v>
-      </c>
-      <c r="K2" t="n">
-        <v>60.02133544470844</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82.62862153942162</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82.62862153942162</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82.6286215394216</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82.62862153942153</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82.62862153942153</v>
       </c>
     </row>
     <row r="3">
@@ -26768,7 +26768,7 @@
         <v>652.643915288361</v>
       </c>
       <c r="M3" t="n">
-        <v>652.6439152883609</v>
+        <v>652.643915288361</v>
       </c>
       <c r="N3" t="n">
         <v>652.643915288361</v>
@@ -26777,7 +26777,7 @@
         <v>652.643915288361</v>
       </c>
       <c r="P3" t="n">
-        <v>652.6439152883611</v>
+        <v>652.643915288361</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>910.0231960580916</v>
+        <v>910.0231960580917</v>
       </c>
       <c r="F4" t="n">
-        <v>910.0231960580916</v>
+        <v>910.0231960580917</v>
       </c>
       <c r="G4" t="n">
-        <v>910.0231960580916</v>
+        <v>910.0231960580917</v>
       </c>
       <c r="H4" t="n">
-        <v>910.0231960580916</v>
+        <v>910.0231960580917</v>
       </c>
       <c r="I4" t="n">
-        <v>910.0231960580916</v>
+        <v>910.0231960580917</v>
       </c>
       <c r="J4" t="n">
         <v>997.4044812108169</v>
@@ -26820,16 +26820,16 @@
         <v>982.1017436956819</v>
       </c>
       <c r="M4" t="n">
+        <v>910.0231960580916</v>
+      </c>
+      <c r="N4" t="n">
+        <v>910.0231960580916</v>
+      </c>
+      <c r="O4" t="n">
         <v>910.0231960580915</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>910.0231960580915</v>
-      </c>
-      <c r="O4" t="n">
-        <v>910.0231960580917</v>
-      </c>
-      <c r="P4" t="n">
-        <v>910.0231960580917</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.98759850324338</v>
+        <v>59.98759850324335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03373694146513273</v>
+        <v>0.03373694146515405</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.59488459795655</v>
+        <v>82.59488459795645</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03373694146506168</v>
+        <v>0.03373694146516826</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>894.7204585429565</v>
+        <v>894.7204585429566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.38128515272535</v>
+        <v>87.38128515272524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>822.6419109053661</v>
+        <v>822.6419109053663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.98759850324338</v>
+        <v>59.98759850324335</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03373694146513273</v>
+        <v>0.03373694146515405</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>894.7204585429565</v>
+        <v>894.7204585429566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.6276325571267</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27895,16 +27895,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>134.6010260184174</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>213.1397959419893</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27935,13 +27935,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>131.5905611900529</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>75.91798164808414</v>
+        <v>74.09389533628003</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,7 +27986,7 @@
         <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>141.9718237239273</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>82.60196964844833</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="C11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="D11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="E11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="F11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="G11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="H11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="I11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="T11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="U11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="V11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="W11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="X11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="C13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="D13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="E13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="F13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="G13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="H13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="I13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="J13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="K13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="L13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="M13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="N13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="O13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="R13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="S13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="T13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="U13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="V13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="W13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="X13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.64102303617824</v>
+        <v>22.64102303617819</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="C14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="D14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="E14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="F14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="G14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="H14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="I14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="T14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="U14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="V14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="W14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="X14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="C16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="D16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="E16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="F16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="G16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="H16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="I16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="J16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="K16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="L16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="M16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="N16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="O16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="R16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="S16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="T16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="U16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="V16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="W16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="X16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.64102303617823</v>
+        <v>22.64102303617819</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="C17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="D17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="E17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="F17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="G17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="H17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="I17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="T17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="U17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="V17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="W17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="X17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="C19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="D19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="E19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="F19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="G19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="H19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="I19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="J19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942228</v>
       </c>
       <c r="K19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="L19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="M19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="N19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="O19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="P19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="R19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="S19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="T19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="U19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="V19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="W19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="X19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="C20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="D20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="E20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="F20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="G20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="H20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="I20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="T20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="U20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="V20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="W20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="X20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="C22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="D22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="E22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="F22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="G22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="H22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="I22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="J22" t="n">
-        <v>82.62862153942132</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="K22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="L22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="M22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="N22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="O22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="P22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="R22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="S22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="T22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="U22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="V22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="W22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="X22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="C23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="D23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="E23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="F23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="G23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="H23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="I23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="T23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="U23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="V23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="W23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="X23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="C25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="D25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="E25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="F25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="G25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="H25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="I25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="J25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="K25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942228</v>
       </c>
       <c r="L25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="M25" t="n">
-        <v>82.62862153942146</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="N25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="O25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="P25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="R25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="S25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="T25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="U25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="V25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="W25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="X25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942154</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="C26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="D26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="E26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="F26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="G26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="H26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="I26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="T26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="U26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="V26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="W26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="X26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="Y26" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="C28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="D28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="E28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="F28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="G28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="H28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="I28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="J28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="K28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="L28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="M28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="N28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="O28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="P28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="R28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="S28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="T28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="U28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="V28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="W28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="X28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="Y28" t="n">
-        <v>60.0213354447085</v>
+        <v>60.02133544470851</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="C29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="D29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="E29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="F29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="G29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="H29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="I29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="T29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="U29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="V29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="W29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="X29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="Y29" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="C31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="D31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="E31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="F31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="G31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="H31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="I31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="J31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="K31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="L31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="M31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="N31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="O31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="P31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="R31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="S31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="T31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="U31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="V31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="W31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="X31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.02133544470844</v>
+        <v>60.02133544470851</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="D32" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="E32" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="F32" t="n">
-        <v>82.62862153942162</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>82.62862153942162</v>
+        <v>50.79205848572536</v>
       </c>
       <c r="H32" t="n">
-        <v>50.79205848572519</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="I32" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,22 +29797,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="T32" t="n">
-        <v>82.62862153942162</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="V32" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="W32" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="X32" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="C34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="D34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="E34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="F34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="G34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="H34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="I34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="J34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="K34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="L34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="M34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="N34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="O34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="P34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="R34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="S34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="T34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="U34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="V34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="W34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="X34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.62862153942162</v>
+        <v>82.6286215394216</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="C35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="D35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="E35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="F35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="G35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="H35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="I35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="T35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="U35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="V35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="W35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="X35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="C37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="D37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="E37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="F37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="G37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="H37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="I37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="J37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="K37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="L37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="M37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="N37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="O37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="P37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="R37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="S37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="T37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="U37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="V37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="W37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="X37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.62862153942162</v>
+        <v>82.62862153942159</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="C38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="D38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="E38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="F38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="G38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="H38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="I38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="T38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="U38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="V38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="W38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="X38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="C40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="D40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="E40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="F40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="G40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="H40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="I40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="J40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="K40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="L40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="M40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="N40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="O40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="P40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942126</v>
       </c>
       <c r="R40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="S40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="T40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="U40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="V40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="W40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="X40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.6286215394216</v>
+        <v>82.62862153942159</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="C41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="D41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="E41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="F41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="G41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="H41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="I41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="T41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="U41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="V41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="W41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="X41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="C43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="D43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="E43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="F43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="G43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="H43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="I43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="J43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="K43" t="n">
-        <v>82.62862153942257</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="L43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="M43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="N43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="O43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="P43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.62862153942126</v>
       </c>
       <c r="R43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="S43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="T43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="U43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="V43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="W43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="X43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="C44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="D44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="E44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="F44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="G44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="H44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="I44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="T44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="U44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="V44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="W44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="X44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="C46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="D46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="E46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="F46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="G46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="H46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="I46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="J46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="K46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="L46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="M46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="N46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="O46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="P46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="R46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="S46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="T46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="U46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="V46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="W46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="X46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.62862153942153</v>
+        <v>82.6286215394216</v>
       </c>
     </row>
   </sheetData>
@@ -33649,16 +33649,16 @@
         <v>2.623694131812504</v>
       </c>
       <c r="H35" t="n">
-        <v>26.86990752742481</v>
+        <v>26.86990752742482</v>
       </c>
       <c r="I35" t="n">
         <v>101.1499680167017</v>
       </c>
       <c r="J35" t="n">
-        <v>222.6827598199217</v>
+        <v>222.6827598199218</v>
       </c>
       <c r="K35" t="n">
-        <v>333.7437324195451</v>
+        <v>333.7437324195452</v>
       </c>
       <c r="L35" t="n">
         <v>414.0386117060021</v>
@@ -33667,13 +33667,13 @@
         <v>460.6977322226227</v>
       </c>
       <c r="N35" t="n">
-        <v>468.152303174635</v>
+        <v>468.1523031746351</v>
       </c>
       <c r="O35" t="n">
-        <v>442.0629446514244</v>
+        <v>442.0629446514245</v>
       </c>
       <c r="P35" t="n">
-        <v>377.2904957723031</v>
+        <v>377.2904957723032</v>
       </c>
       <c r="Q35" t="n">
         <v>283.3294496767678</v>
@@ -33682,7 +33682,7 @@
         <v>164.8106265074674</v>
       </c>
       <c r="S35" t="n">
-        <v>59.78743002867749</v>
+        <v>59.78743002867751</v>
       </c>
       <c r="T35" t="n">
         <v>11.48522106200924</v>
@@ -33731,7 +33731,7 @@
         <v>13.55775378740539</v>
       </c>
       <c r="I36" t="n">
-        <v>48.33259183975126</v>
+        <v>48.33259183975127</v>
       </c>
       <c r="J36" t="n">
         <v>132.6283262191187</v>
@@ -33743,7 +33743,7 @@
         <v>304.8031794938709</v>
       </c>
       <c r="M36" t="n">
-        <v>355.6909338321566</v>
+        <v>355.6909338321567</v>
       </c>
       <c r="N36" t="n">
         <v>365.1050144592879</v>
@@ -33752,22 +33752,22 @@
         <v>333.9997591759218</v>
       </c>
       <c r="P36" t="n">
-        <v>268.0642526775911</v>
+        <v>268.0642526775912</v>
       </c>
       <c r="Q36" t="n">
         <v>179.1938538731364</v>
       </c>
       <c r="R36" t="n">
-        <v>87.15874778134</v>
+        <v>87.15874778134001</v>
       </c>
       <c r="S36" t="n">
         <v>26.07497152119063</v>
       </c>
       <c r="T36" t="n">
-        <v>5.658299605188711</v>
+        <v>5.658299605188713</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09235527103137187</v>
+        <v>0.09235527103137188</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>10.46370080577078</v>
       </c>
       <c r="I37" t="n">
-        <v>35.39255855367046</v>
+        <v>35.39255855367047</v>
       </c>
       <c r="J37" t="n">
-        <v>83.20674965897675</v>
+        <v>83.20674965897676</v>
       </c>
       <c r="K37" t="n">
         <v>136.7342497932008</v>
@@ -33822,7 +33822,7 @@
         <v>174.9727637807517</v>
       </c>
       <c r="M37" t="n">
-        <v>184.4842464150361</v>
+        <v>184.4842464150362</v>
       </c>
       <c r="N37" t="n">
         <v>180.0976233778522</v>
@@ -33834,16 +33834,16 @@
         <v>142.3405680163336</v>
       </c>
       <c r="Q37" t="n">
-        <v>98.54923120854248</v>
+        <v>98.54923120854251</v>
       </c>
       <c r="R37" t="n">
-        <v>52.9176525412497</v>
+        <v>52.91765254124971</v>
       </c>
       <c r="S37" t="n">
         <v>20.51013746898012</v>
       </c>
       <c r="T37" t="n">
-        <v>5.028567871893926</v>
+        <v>5.028567871893927</v>
       </c>
       <c r="U37" t="n">
         <v>0.06419448347098639</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.623694131812505</v>
+        <v>2.623694131812504</v>
       </c>
       <c r="H44" t="n">
         <v>26.86990752742482</v>
@@ -34372,13 +34372,13 @@
         <v>333.7437324195452</v>
       </c>
       <c r="L44" t="n">
-        <v>414.0386117060022</v>
+        <v>414.0386117060021</v>
       </c>
       <c r="M44" t="n">
-        <v>460.6977322226228</v>
+        <v>460.6977322226227</v>
       </c>
       <c r="N44" t="n">
-        <v>468.1523031746352</v>
+        <v>468.1523031746351</v>
       </c>
       <c r="O44" t="n">
         <v>442.0629446514245</v>
@@ -34396,7 +34396,7 @@
         <v>59.78743002867751</v>
       </c>
       <c r="T44" t="n">
-        <v>11.48522106200925</v>
+        <v>11.48522106200924</v>
       </c>
       <c r="U44" t="n">
         <v>0.2098955305450003</v>
@@ -34448,19 +34448,19 @@
         <v>132.6283262191187</v>
       </c>
       <c r="K45" t="n">
-        <v>226.6829342374679</v>
+        <v>226.6829342374678</v>
       </c>
       <c r="L45" t="n">
         <v>304.8031794938709</v>
       </c>
       <c r="M45" t="n">
-        <v>355.6909338321568</v>
+        <v>355.6909338321567</v>
       </c>
       <c r="N45" t="n">
-        <v>365.105014459288</v>
+        <v>365.1050144592879</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9997591759219</v>
+        <v>333.9997591759218</v>
       </c>
       <c r="P45" t="n">
         <v>268.0642526775912</v>
@@ -34469,16 +34469,16 @@
         <v>179.1938538731364</v>
       </c>
       <c r="R45" t="n">
-        <v>87.15874778134003</v>
+        <v>87.15874778134001</v>
       </c>
       <c r="S45" t="n">
-        <v>26.07497152119064</v>
+        <v>26.07497152119063</v>
       </c>
       <c r="T45" t="n">
-        <v>5.658299605188714</v>
+        <v>5.658299605188713</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09235527103137189</v>
+        <v>0.09235527103137188</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,22 +34521,22 @@
         <v>10.46370080577078</v>
       </c>
       <c r="I46" t="n">
-        <v>35.39255855367048</v>
+        <v>35.39255855367047</v>
       </c>
       <c r="J46" t="n">
-        <v>83.20674965897678</v>
+        <v>83.20674965897676</v>
       </c>
       <c r="K46" t="n">
-        <v>136.7342497932009</v>
+        <v>136.7342497932008</v>
       </c>
       <c r="L46" t="n">
-        <v>174.9727637807518</v>
+        <v>174.9727637807517</v>
       </c>
       <c r="M46" t="n">
         <v>184.4842464150362</v>
       </c>
       <c r="N46" t="n">
-        <v>180.0976233778523</v>
+        <v>180.0976233778522</v>
       </c>
       <c r="O46" t="n">
         <v>166.3493048344826</v>
@@ -34545,19 +34545,19 @@
         <v>142.3405680163336</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.54923120854252</v>
+        <v>98.54923120854251</v>
       </c>
       <c r="R46" t="n">
-        <v>52.91765254124972</v>
+        <v>52.91765254124971</v>
       </c>
       <c r="S46" t="n">
-        <v>20.51013746898013</v>
+        <v>20.51013746898012</v>
       </c>
       <c r="T46" t="n">
-        <v>5.028567871893928</v>
+        <v>5.028567871893927</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0641944834709864</v>
+        <v>0.06419448347098639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
         <v>15.30273751513505</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="M9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>210.7334704653092</v>
+        <v>41.63685529323547</v>
       </c>
       <c r="K11" t="n">
         <v>437.7992939457293</v>
       </c>
       <c r="L11" t="n">
-        <v>462.2538183113369</v>
+        <v>595.9334112864653</v>
       </c>
       <c r="M11" t="n">
         <v>679.8650324881825</v>
@@ -35422,16 +35422,16 @@
         <v>676.0861639900284</v>
       </c>
       <c r="O11" t="n">
-        <v>592.7649144924831</v>
+        <v>430.8084545958412</v>
       </c>
       <c r="P11" t="n">
         <v>467.8562081885163</v>
       </c>
       <c r="Q11" t="n">
-        <v>61.02375980231832</v>
+        <v>273.338750462223</v>
       </c>
       <c r="R11" t="n">
-        <v>14.94150856631771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>131.8817348928609</v>
       </c>
       <c r="K12" t="n">
-        <v>102.6897471295056</v>
+        <v>353.3067322756874</v>
       </c>
       <c r="L12" t="n">
         <v>537.0891450174558</v>
@@ -35498,16 +35498,16 @@
         <v>213.5568999101384</v>
       </c>
       <c r="N12" t="n">
-        <v>713.1056767195082</v>
+        <v>233.7633023759546</v>
       </c>
       <c r="O12" t="n">
-        <v>191.4035147314774</v>
+        <v>585.2658340082069</v>
       </c>
       <c r="P12" t="n">
         <v>452.5526139031981</v>
       </c>
       <c r="Q12" t="n">
-        <v>249.289367522964</v>
+        <v>84.15243744360612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.48859257848223</v>
+        <v>12.48859257848218</v>
       </c>
       <c r="K13" t="n">
         <v>137.1057810034962</v>
@@ -35574,10 +35574,10 @@
         <v>225.2038120772461</v>
       </c>
       <c r="M13" t="n">
-        <v>246.709146413055</v>
+        <v>246.7091464130549</v>
       </c>
       <c r="N13" t="n">
-        <v>246.8708187932591</v>
+        <v>246.870818793259</v>
       </c>
       <c r="O13" t="n">
         <v>213.5754557847005</v>
@@ -35586,7 +35586,7 @@
         <v>162.2601503174053</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.02821099302636</v>
+        <v>35.02821099302632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>437.7992939457293</v>
       </c>
       <c r="L14" t="n">
-        <v>249.9388276514321</v>
+        <v>595.9334112864653</v>
       </c>
       <c r="M14" t="n">
         <v>679.8650324881825</v>
@@ -35659,7 +35659,7 @@
         <v>676.0861639900284</v>
       </c>
       <c r="O14" t="n">
-        <v>592.7649144924831</v>
+        <v>261.7118394237675</v>
       </c>
       <c r="P14" t="n">
         <v>467.8562081885163</v>
@@ -35668,7 +35668,7 @@
         <v>273.338750462223</v>
       </c>
       <c r="R14" t="n">
-        <v>14.94150856631771</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>353.3067322756874</v>
       </c>
       <c r="L15" t="n">
-        <v>166.2487997139967</v>
+        <v>537.0891450174558</v>
       </c>
       <c r="M15" t="n">
-        <v>333.7802600674158</v>
+        <v>442.2822891075102</v>
       </c>
       <c r="N15" t="n">
-        <v>713.1056767195082</v>
+        <v>233.7633023759546</v>
       </c>
       <c r="O15" t="n">
         <v>191.4035147314774</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.48859257848221</v>
+        <v>12.48859257848218</v>
       </c>
       <c r="K16" t="n">
         <v>137.1057810034962</v>
@@ -35811,7 +35811,7 @@
         <v>225.2038120772461</v>
       </c>
       <c r="M16" t="n">
-        <v>246.709146413055</v>
+        <v>246.7091464130549</v>
       </c>
       <c r="N16" t="n">
         <v>246.870818793259</v>
@@ -35823,7 +35823,7 @@
         <v>162.2601503174053</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.02821099302635</v>
+        <v>35.02821099302632</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>210.7334704653092</v>
       </c>
       <c r="K17" t="n">
-        <v>304.1197009706011</v>
+        <v>437.7992939457293</v>
       </c>
       <c r="L17" t="n">
         <v>595.9334112864653</v>
       </c>
       <c r="M17" t="n">
-        <v>679.8650324881825</v>
+        <v>333.8704488531496</v>
       </c>
       <c r="N17" t="n">
         <v>676.0861639900284</v>
@@ -35902,7 +35902,7 @@
         <v>467.8562081885163</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.02375980231832</v>
+        <v>273.338750462223</v>
       </c>
       <c r="R17" t="n">
         <v>14.94150856631771</v>
@@ -35963,19 +35963,19 @@
         <v>131.8817348928609</v>
       </c>
       <c r="K18" t="n">
-        <v>88.84149526310881</v>
+        <v>353.3067322756874</v>
       </c>
       <c r="L18" t="n">
         <v>537.0891450174558</v>
       </c>
       <c r="M18" t="n">
-        <v>679.2619636601382</v>
+        <v>213.5568999101384</v>
       </c>
       <c r="N18" t="n">
         <v>233.7633023759546</v>
       </c>
       <c r="O18" t="n">
-        <v>218.8890771914278</v>
+        <v>420.1289039288491</v>
       </c>
       <c r="P18" t="n">
         <v>452.5526139031981</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>72.47619108172559</v>
+        <v>72.47619108172627</v>
       </c>
       <c r="K19" t="n">
-        <v>197.0933795067396</v>
+        <v>197.0933795067395</v>
       </c>
       <c r="L19" t="n">
         <v>285.1914105804894</v>
       </c>
       <c r="M19" t="n">
-        <v>306.6967449162984</v>
+        <v>306.6967449162983</v>
       </c>
       <c r="N19" t="n">
-        <v>306.8584172965025</v>
+        <v>306.8584172965024</v>
       </c>
       <c r="O19" t="n">
-        <v>273.5630542879439</v>
+        <v>273.5630542879438</v>
       </c>
       <c r="P19" t="n">
-        <v>222.2477488206487</v>
+        <v>222.2477488206486</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.01580949626972</v>
+        <v>95.01580949626967</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>595.9334112864653</v>
       </c>
       <c r="M20" t="n">
-        <v>679.8650324881825</v>
+        <v>348.8119574194671</v>
       </c>
       <c r="N20" t="n">
         <v>676.0861639900284</v>
       </c>
       <c r="O20" t="n">
-        <v>246.7703308574496</v>
+        <v>592.7649144924831</v>
       </c>
       <c r="P20" t="n">
         <v>467.8562081885163</v>
@@ -36142,7 +36142,7 @@
         <v>273.338750462223</v>
       </c>
       <c r="R20" t="n">
-        <v>14.94150856631771</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5.790699552452054</v>
+        <v>131.8817348928609</v>
       </c>
       <c r="K21" t="n">
-        <v>353.3067322756874</v>
+        <v>116.3270577230594</v>
       </c>
       <c r="L21" t="n">
-        <v>412.5631952116829</v>
+        <v>537.0891450174558</v>
       </c>
       <c r="M21" t="n">
-        <v>213.5568999101384</v>
+        <v>679.2619636601382</v>
       </c>
       <c r="N21" t="n">
-        <v>713.1056767195082</v>
+        <v>233.7633023759546</v>
       </c>
       <c r="O21" t="n">
         <v>191.4035147314774</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.4761910817253</v>
+        <v>72.47619108172553</v>
       </c>
       <c r="K22" t="n">
-        <v>197.0933795067396</v>
+        <v>197.0933795067395</v>
       </c>
       <c r="L22" t="n">
         <v>285.1914105804894</v>
       </c>
       <c r="M22" t="n">
-        <v>306.6967449162984</v>
+        <v>306.6967449162983</v>
       </c>
       <c r="N22" t="n">
-        <v>306.8584172965025</v>
+        <v>306.8584172965024</v>
       </c>
       <c r="O22" t="n">
-        <v>273.5630542879439</v>
+        <v>273.5630542879438</v>
       </c>
       <c r="P22" t="n">
-        <v>222.2477488206487</v>
+        <v>222.2477488206486</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.01580949626972</v>
+        <v>95.01580949626967</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>210.7334704653092</v>
+        <v>91.99538605649886</v>
       </c>
       <c r="K23" t="n">
         <v>437.7992939457293</v>
@@ -36373,7 +36373,7 @@
         <v>592.7649144924831</v>
       </c>
       <c r="P23" t="n">
-        <v>349.1181237797052</v>
+        <v>467.8562081885163</v>
       </c>
       <c r="Q23" t="n">
         <v>61.02375980231832</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5.790699552452054</v>
+        <v>131.8817348928609</v>
       </c>
       <c r="K24" t="n">
-        <v>88.84149526310881</v>
+        <v>353.3067322756874</v>
       </c>
       <c r="L24" t="n">
         <v>537.0891450174558</v>
       </c>
       <c r="M24" t="n">
-        <v>679.2619636601382</v>
+        <v>442.2822891075102</v>
       </c>
       <c r="N24" t="n">
-        <v>713.1056767195082</v>
+        <v>233.7633023759546</v>
       </c>
       <c r="O24" t="n">
         <v>191.4035147314774</v>
       </c>
       <c r="P24" t="n">
-        <v>134.0898452632609</v>
+        <v>452.5526139031981</v>
       </c>
       <c r="Q24" t="n">
-        <v>241.986359619707</v>
+        <v>249.289367522964</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.47619108172559</v>
+        <v>72.47619108172553</v>
       </c>
       <c r="K25" t="n">
-        <v>197.0933795067396</v>
+        <v>197.0933795067403</v>
       </c>
       <c r="L25" t="n">
         <v>285.1914105804894</v>
       </c>
       <c r="M25" t="n">
-        <v>306.6967449162982</v>
+        <v>306.6967449162983</v>
       </c>
       <c r="N25" t="n">
-        <v>306.8584172965025</v>
+        <v>306.8584172965024</v>
       </c>
       <c r="O25" t="n">
-        <v>273.5630542879439</v>
+        <v>273.5630542879438</v>
       </c>
       <c r="P25" t="n">
-        <v>222.2477488206487</v>
+        <v>222.2477488206486</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.01580949626972</v>
+        <v>95.01580949626967</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>467.8562081885163</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.338750462223</v>
+        <v>273.3387504622235</v>
       </c>
       <c r="R26" t="n">
         <v>14.94150856631771</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.790699552452054</v>
+        <v>131.8817348928609</v>
       </c>
       <c r="K27" t="n">
-        <v>88.84149526310881</v>
+        <v>353.3067322756874</v>
       </c>
       <c r="L27" t="n">
         <v>537.0891450174558</v>
       </c>
       <c r="M27" t="n">
-        <v>649.0535299196168</v>
+        <v>213.5568999101384</v>
       </c>
       <c r="N27" t="n">
         <v>233.7633023759546</v>
       </c>
       <c r="O27" t="n">
-        <v>585.2658340082069</v>
+        <v>420.1289039288491</v>
       </c>
       <c r="P27" t="n">
         <v>452.5526139031981</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.2120797871149</v>
+        <v>249.289367522964</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.86890498701248</v>
+        <v>49.86890498701249</v>
       </c>
       <c r="K28" t="n">
         <v>174.4860934120265</v>
@@ -36771,7 +36771,7 @@
         <v>199.6404627259356</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.40852340155662</v>
+        <v>72.40852340155664</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.790699552452054</v>
+        <v>131.8817348928609</v>
       </c>
       <c r="K30" t="n">
-        <v>88.84149526310881</v>
+        <v>353.3067322756874</v>
       </c>
       <c r="L30" t="n">
-        <v>166.2487997139967</v>
+        <v>537.0891450174558</v>
       </c>
       <c r="M30" t="n">
-        <v>679.2619636601382</v>
+        <v>213.5568999101384</v>
       </c>
       <c r="N30" t="n">
-        <v>713.1056767195082</v>
+        <v>233.7633023759546</v>
       </c>
       <c r="O30" t="n">
-        <v>585.2658340082069</v>
+        <v>420.1289039288491</v>
       </c>
       <c r="P30" t="n">
-        <v>134.0898452632609</v>
+        <v>452.5526139031981</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.9643856464366</v>
+        <v>249.289367522964</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.86890498701243</v>
+        <v>49.86890498701249</v>
       </c>
       <c r="K31" t="n">
-        <v>174.4860934120264</v>
+        <v>174.4860934120265</v>
       </c>
       <c r="L31" t="n">
-        <v>262.5841244857763</v>
+        <v>262.5841244857764</v>
       </c>
       <c r="M31" t="n">
-        <v>284.0894588215852</v>
+        <v>284.0894588215853</v>
       </c>
       <c r="N31" t="n">
         <v>284.2511312017893</v>
       </c>
       <c r="O31" t="n">
-        <v>250.9557681932307</v>
+        <v>250.9557681932308</v>
       </c>
       <c r="P31" t="n">
-        <v>199.6404627259355</v>
+        <v>199.6404627259356</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.40852340155656</v>
+        <v>72.40852340155664</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>595.9334112864653</v>
       </c>
       <c r="M32" t="n">
-        <v>679.8650324881825</v>
+        <v>619.2723748524968</v>
       </c>
       <c r="N32" t="n">
         <v>676.0861639900284</v>
@@ -37084,7 +37084,7 @@
         <v>592.7649144924831</v>
       </c>
       <c r="P32" t="n">
-        <v>407.2635505528303</v>
+        <v>467.8562081885163</v>
       </c>
       <c r="Q32" t="n">
         <v>273.338750462223</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.790699552452054</v>
+        <v>131.8817348928609</v>
       </c>
       <c r="K33" t="n">
         <v>88.84149526310881</v>
@@ -37157,13 +37157,13 @@
         <v>679.2619636601382</v>
       </c>
       <c r="N33" t="n">
-        <v>682.7806948429808</v>
+        <v>713.1056767195082</v>
       </c>
       <c r="O33" t="n">
-        <v>585.2658340082069</v>
+        <v>191.4035147314774</v>
       </c>
       <c r="P33" t="n">
-        <v>134.0898452632609</v>
+        <v>371.5361473230541</v>
       </c>
       <c r="Q33" t="n">
         <v>249.289367522964</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.4761910817256</v>
+        <v>72.47619108172559</v>
       </c>
       <c r="K34" t="n">
         <v>197.0933795067396</v>
       </c>
       <c r="L34" t="n">
-        <v>285.1914105804895</v>
+        <v>285.1914105804894</v>
       </c>
       <c r="M34" t="n">
         <v>306.6967449162984</v>
@@ -37245,7 +37245,7 @@
         <v>222.2477488206487</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.01580949626974</v>
+        <v>95.01580949626972</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,22 +37312,22 @@
         <v>595.9334112864653</v>
       </c>
       <c r="M35" t="n">
-        <v>679.8650324881825</v>
+        <v>333.8704488531492</v>
       </c>
       <c r="N35" t="n">
-        <v>676.0861639900282</v>
+        <v>676.0861639900284</v>
       </c>
       <c r="O35" t="n">
-        <v>246.7703308574496</v>
+        <v>592.7649144924831</v>
       </c>
       <c r="P35" t="n">
-        <v>467.8562081885162</v>
+        <v>467.8562081885163</v>
       </c>
       <c r="Q35" t="n">
-        <v>273.3387504622229</v>
+        <v>273.338750462223</v>
       </c>
       <c r="R35" t="n">
-        <v>14.94150856631768</v>
+        <v>14.94150856631771</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>5.790699552452026</v>
+        <v>131.8817348928609</v>
       </c>
       <c r="K36" t="n">
-        <v>343.993351759223</v>
+        <v>353.3067322756874</v>
       </c>
       <c r="L36" t="n">
-        <v>166.2487997139967</v>
+        <v>537.0891450174558</v>
       </c>
       <c r="M36" t="n">
-        <v>679.2619636601382</v>
+        <v>213.5568999101384</v>
       </c>
       <c r="N36" t="n">
-        <v>713.1056767195081</v>
+        <v>233.7633023759546</v>
       </c>
       <c r="O36" t="n">
-        <v>191.4035147314773</v>
+        <v>420.1289039288491</v>
       </c>
       <c r="P36" t="n">
         <v>452.5526139031981</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.21207978711487</v>
+        <v>249.289367522964</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>72.47619108172559</v>
+        <v>72.47619108172557</v>
       </c>
       <c r="K37" t="n">
         <v>197.0933795067396</v>
@@ -37558,13 +37558,13 @@
         <v>592.7649144924831</v>
       </c>
       <c r="P38" t="n">
-        <v>349.1181237797048</v>
+        <v>146.0575000170336</v>
       </c>
       <c r="Q38" t="n">
-        <v>61.02375980231832</v>
+        <v>249.1428749986725</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>14.94150856631771</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>5.790699552452054</v>
+        <v>131.8817348928609</v>
       </c>
       <c r="K39" t="n">
-        <v>242.4180930634683</v>
+        <v>353.3067322756874</v>
       </c>
       <c r="L39" t="n">
         <v>537.0891450174558</v>
       </c>
       <c r="M39" t="n">
-        <v>679.2619636601382</v>
+        <v>213.5568999101384</v>
       </c>
       <c r="N39" t="n">
         <v>233.7633023759546</v>
       </c>
       <c r="O39" t="n">
-        <v>191.4035147314774</v>
+        <v>420.1289039288491</v>
       </c>
       <c r="P39" t="n">
         <v>452.5526139031981</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>72.47619108172559</v>
+        <v>72.47619108172557</v>
       </c>
       <c r="K40" t="n">
         <v>197.0933795067396</v>
@@ -37707,10 +37707,10 @@
         <v>285.1914105804894</v>
       </c>
       <c r="M40" t="n">
-        <v>306.6967449162984</v>
+        <v>306.6967449162983</v>
       </c>
       <c r="N40" t="n">
-        <v>306.8584172965025</v>
+        <v>306.8584172965024</v>
       </c>
       <c r="O40" t="n">
         <v>273.5630542879439</v>
@@ -37719,7 +37719,7 @@
         <v>222.2477488206487</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.01580949626972</v>
+        <v>95.01580949626938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,19 +37789,19 @@
         <v>679.8650324881825</v>
       </c>
       <c r="N41" t="n">
-        <v>330.0915803549954</v>
+        <v>676.0861639900284</v>
       </c>
       <c r="O41" t="n">
         <v>592.7649144924831</v>
       </c>
       <c r="P41" t="n">
-        <v>467.8562081885163</v>
+        <v>146.0575000170336</v>
       </c>
       <c r="Q41" t="n">
-        <v>273.338750462223</v>
+        <v>264.0843835649895</v>
       </c>
       <c r="R41" t="n">
-        <v>14.94150856631771</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>131.8817348928609</v>
       </c>
       <c r="K42" t="n">
-        <v>88.84149526310881</v>
+        <v>353.3067322756874</v>
       </c>
       <c r="L42" t="n">
         <v>537.0891450174558</v>
@@ -37868,10 +37868,10 @@
         <v>213.5568999101384</v>
       </c>
       <c r="N42" t="n">
-        <v>333.0916093091751</v>
+        <v>233.7633023759546</v>
       </c>
       <c r="O42" t="n">
-        <v>585.2658340082069</v>
+        <v>420.1289039288491</v>
       </c>
       <c r="P42" t="n">
         <v>452.5526139031981</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>72.47619108172552</v>
+        <v>72.47619108172559</v>
       </c>
       <c r="K43" t="n">
-        <v>197.0933795067405</v>
+        <v>197.0933795067396</v>
       </c>
       <c r="L43" t="n">
         <v>285.1914105804894</v>
       </c>
       <c r="M43" t="n">
-        <v>306.6967449162983</v>
+        <v>306.6967449162984</v>
       </c>
       <c r="N43" t="n">
-        <v>306.8584172965024</v>
+        <v>306.8584172965025</v>
       </c>
       <c r="O43" t="n">
-        <v>273.5630542879438</v>
+        <v>273.5630542879439</v>
       </c>
       <c r="P43" t="n">
-        <v>222.2477488206486</v>
+        <v>222.2477488206487</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.01580949626965</v>
+        <v>95.01580949626938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>210.7334704653093</v>
+        <v>41.63685529323547</v>
       </c>
       <c r="K44" t="n">
-        <v>437.7992939457294</v>
+        <v>437.7992939457293</v>
       </c>
       <c r="L44" t="n">
-        <v>249.938827651432</v>
+        <v>595.9334112864653</v>
       </c>
       <c r="M44" t="n">
-        <v>679.8650324881826</v>
+        <v>679.8650324881825</v>
       </c>
       <c r="N44" t="n">
         <v>676.0861639900284</v>
       </c>
       <c r="O44" t="n">
-        <v>592.7649144924832</v>
+        <v>592.7649144924831</v>
       </c>
       <c r="P44" t="n">
         <v>467.8562081885163</v>
       </c>
       <c r="Q44" t="n">
-        <v>273.338750462223</v>
+        <v>111.3822905655805</v>
       </c>
       <c r="R44" t="n">
-        <v>14.94150856631774</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.790699552452054</v>
+        <v>131.8817348928609</v>
       </c>
       <c r="K45" t="n">
-        <v>353.3067322756875</v>
+        <v>353.3067322756874</v>
       </c>
       <c r="L45" t="n">
-        <v>265.3209001016198</v>
+        <v>537.0891450174558</v>
       </c>
       <c r="M45" t="n">
-        <v>679.2619636601383</v>
+        <v>442.2822891075102</v>
       </c>
       <c r="N45" t="n">
-        <v>713.1056767195082</v>
+        <v>233.7633023759546</v>
       </c>
       <c r="O45" t="n">
-        <v>191.4035147314775</v>
+        <v>191.4035147314774</v>
       </c>
       <c r="P45" t="n">
-        <v>134.0898452632609</v>
+        <v>452.5526139031981</v>
       </c>
       <c r="Q45" t="n">
         <v>249.289367522964</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.47619108172553</v>
+        <v>72.47619108172559</v>
       </c>
       <c r="K46" t="n">
         <v>197.0933795067396</v>
@@ -38181,19 +38181,19 @@
         <v>285.1914105804894</v>
       </c>
       <c r="M46" t="n">
-        <v>306.6967449162983</v>
+        <v>306.6967449162984</v>
       </c>
       <c r="N46" t="n">
-        <v>306.8584172965024</v>
+        <v>306.8584172965025</v>
       </c>
       <c r="O46" t="n">
-        <v>273.5630542879438</v>
+        <v>273.5630542879439</v>
       </c>
       <c r="P46" t="n">
         <v>222.2477488206487</v>
       </c>
       <c r="Q46" t="n">
-        <v>95.01580949626967</v>
+        <v>95.01580949626972</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
